--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24181059-2C31-450E-8FAA-E8C56745C15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4F7900-3082-402E-AB6A-F85CE2116DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
   <si>
     <t>Input</t>
   </si>
@@ -323,6 +323,81 @@
   </si>
   <si>
     <t>John IEM</t>
+  </si>
+  <si>
+    <t>Talkback is on port 12 of the bottom splitter</t>
+  </si>
+  <si>
+    <t>Top 1</t>
+  </si>
+  <si>
+    <t>Top 2</t>
+  </si>
+  <si>
+    <t>Top 3</t>
+  </si>
+  <si>
+    <t>Top 4</t>
+  </si>
+  <si>
+    <t>Top 5</t>
+  </si>
+  <si>
+    <t>Top 6</t>
+  </si>
+  <si>
+    <t>Top 7</t>
+  </si>
+  <si>
+    <t>Top 8</t>
+  </si>
+  <si>
+    <t>Top 9</t>
+  </si>
+  <si>
+    <t>Top 10</t>
+  </si>
+  <si>
+    <t>Top 11</t>
+  </si>
+  <si>
+    <t>Top 12</t>
+  </si>
+  <si>
+    <t>Top 13</t>
+  </si>
+  <si>
+    <t>Top 14</t>
+  </si>
+  <si>
+    <t>Top 15</t>
+  </si>
+  <si>
+    <t>Top 16</t>
+  </si>
+  <si>
+    <t>Bottom 1</t>
+  </si>
+  <si>
+    <t>Bottom 2</t>
+  </si>
+  <si>
+    <t>Bottom 3</t>
+  </si>
+  <si>
+    <t>Bottom 4</t>
+  </si>
+  <si>
+    <t>Bottom 5</t>
+  </si>
+  <si>
+    <t>Bottom 6</t>
+  </si>
+  <si>
+    <t>Bottom 7</t>
+  </si>
+  <si>
+    <t>Bottom 8</t>
   </si>
 </sst>
 </file>
@@ -635,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -772,11 +847,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -819,6 +909,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -906,6 +998,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -921,46 +1016,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1136,9 +1213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1176,7 +1253,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1282,7 +1359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1424,7 +1501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1434,25 +1511,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="22" width="7.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="22" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>56</v>
       </c>
@@ -1481,11 +1558,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="4">
@@ -1508,9 +1585,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="5">
         <v>2</v>
       </c>
@@ -1529,9 +1606,9 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4">
         <v>3</v>
       </c>
@@ -1554,9 +1631,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="5">
         <v>4</v>
       </c>
@@ -1579,9 +1656,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="4">
         <v>5</v>
       </c>
@@ -1604,9 +1681,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="5">
         <v>6</v>
       </c>
@@ -1629,9 +1706,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -1654,9 +1731,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -1679,9 +1756,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -1704,60 +1781,60 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="4">
         <v>11</v>
       </c>
       <c r="D12" s="26">
         <v>11</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="5">
         <v>12</v>
       </c>
       <c r="D13" s="27">
         <v>12</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="4">
         <v>13</v>
       </c>
@@ -1776,9 +1853,9 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="5">
         <v>14</v>
       </c>
@@ -1797,11 +1874,11 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="9">
@@ -1822,9 +1899,9 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="8">
         <v>16</v>
       </c>
@@ -1843,11 +1920,11 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="49" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="18">
@@ -1868,9 +1945,9 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="19">
         <v>18</v>
       </c>
@@ -1889,11 +1966,11 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="53" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="11">
@@ -1914,9 +1991,9 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="49"/>
-      <c r="B21" s="52"/>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="12">
         <v>20</v>
       </c>
@@ -1935,9 +2012,9 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="50"/>
-      <c r="B22" s="53"/>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="11">
         <v>21</v>
       </c>
@@ -1956,11 +2033,11 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="15">
@@ -1981,9 +2058,9 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
-      <c r="B24" s="34"/>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="16">
         <v>23</v>
       </c>
@@ -2002,7 +2079,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14">
@@ -2011,15 +2088,15 @@
       <c r="D25" s="14">
         <v>8</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14">
@@ -2028,15 +2105,15 @@
       <c r="D26" s="14">
         <v>9</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14">
@@ -2045,15 +2122,15 @@
       <c r="D27" s="14">
         <v>10</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14">
@@ -2062,19 +2139,19 @@
       <c r="D28" s="14">
         <v>11</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="31" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="6">
@@ -2093,9 +2170,9 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="7">
         <v>29</v>
       </c>
@@ -2114,9 +2191,9 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="6">
         <v>30</v>
       </c>
@@ -2135,9 +2212,9 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="7">
         <v>31</v>
       </c>
@@ -2154,9 +2231,9 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="6">
         <v>32</v>
       </c>
@@ -2205,57 +2282,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036672A4-8952-44C6-9E0D-0D4906E8D835}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="7.26953125" customWidth="1"/>
-    <col min="9" max="9" width="2.7265625" customWidth="1"/>
-    <col min="10" max="10" width="2.1796875" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7265625" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" customWidth="1"/>
+    <col min="13" max="13" width="2" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.26953125" customWidth="1"/>
-    <col min="18" max="18" width="7.26953125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.26953125" customWidth="1"/>
+    <col min="16" max="17" width="7.28515625" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="24"/>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="N1" s="58" t="s">
+      <c r="L1" s="60"/>
+      <c r="N1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="58"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="24"/>
       <c r="K2" s="21" t="s">
         <v>21</v>
@@ -2271,7 +2347,7 @@
       </c>
       <c r="Q2" s="20"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -2297,101 +2373,101 @@
         <v>8</v>
       </c>
       <c r="I3" s="24"/>
-      <c r="K3" s="21">
-        <v>1</v>
+      <c r="K3" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="21">
-        <v>1</v>
+      <c r="N3" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="20"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="57" t="s">
         <v>65</v>
       </c>
       <c r="I4" s="24"/>
-      <c r="K4" s="21">
-        <v>2</v>
+      <c r="K4" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="L4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="21">
-        <v>2</v>
+      <c r="N4" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="24"/>
-      <c r="K5" s="21">
-        <v>3</v>
+      <c r="K5" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="L5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="21">
-        <v>3</v>
+      <c r="N5" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="O5" s="21" t="s">
         <v>64</v>
       </c>
       <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I6" s="24"/>
-      <c r="K6" s="21">
-        <v>4</v>
+      <c r="K6" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="L6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="21">
-        <v>4</v>
+      <c r="N6" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="O6" s="21" t="s">
         <v>65</v>
       </c>
       <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>9</v>
       </c>
@@ -2417,121 +2493,121 @@
         <v>16</v>
       </c>
       <c r="I7" s="24"/>
-      <c r="K7" s="21">
-        <v>5</v>
+      <c r="K7" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="L7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="21">
-        <v>5</v>
+      <c r="N7" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>54</v>
       </c>
       <c r="Q7" s="20"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="55" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="56" t="s">
         <v>69</v>
       </c>
       <c r="I8" s="24"/>
-      <c r="K8" s="21">
-        <v>6</v>
+      <c r="K8" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="L8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="21">
-        <v>6</v>
+      <c r="N8" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>66</v>
       </c>
       <c r="Q8" s="20"/>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="24"/>
-      <c r="K9" s="21">
-        <v>7</v>
+      <c r="K9" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="L9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="21">
-        <v>7</v>
+      <c r="N9" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="O9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="Q9" s="20"/>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I10" s="24"/>
-      <c r="K10" s="21">
-        <v>8</v>
+      <c r="K10" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="21">
-        <v>8</v>
+      <c r="N10" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="O10" s="21" t="s">
         <v>2</v>
       </c>
       <c r="Q10" s="20"/>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
       <c r="I11" s="24"/>
-      <c r="K11" s="21">
-        <v>9</v>
+      <c r="K11" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="L11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="21">
-        <v>9</v>
+      <c r="N11" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="O11" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Q11" s="20"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>1</v>
       </c>
@@ -2557,83 +2633,83 @@
         <v>8</v>
       </c>
       <c r="I12" s="24"/>
-      <c r="K12" s="21">
-        <v>10</v>
+      <c r="K12" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="L12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="21">
-        <v>10</v>
+      <c r="N12" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="20"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="55" t="s">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="24"/>
-      <c r="K13" s="21">
-        <v>11</v>
+      <c r="K13" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="L13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="21">
-        <v>11</v>
+      <c r="N13" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="O13" s="21" t="s">
         <v>67</v>
       </c>
       <c r="Q13" s="20"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="55"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="66"/>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="24"/>
-      <c r="K14" s="21">
-        <v>12</v>
+      <c r="K14" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="L14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="21">
-        <v>12</v>
+      <c r="N14" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="O14" s="21" t="s">
         <v>3</v>
       </c>
       <c r="Q14" s="20"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2643,89 +2719,89 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="24"/>
-      <c r="K15" s="21">
-        <v>13</v>
+      <c r="K15" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="L15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="21">
-        <v>13</v>
+      <c r="N15" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="O15" s="21" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="20"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="24"/>
-      <c r="K16" s="21">
-        <v>14</v>
+      <c r="K16" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="21">
-        <v>14</v>
+      <c r="N16" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="O16" s="21" t="s">
         <v>5</v>
       </c>
       <c r="Q16" s="20"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="24"/>
-      <c r="K17" s="21">
-        <v>15</v>
+      <c r="K17" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="L17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="21">
-        <v>15</v>
+      <c r="N17" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="O17" s="21" t="s">
         <v>49</v>
       </c>
       <c r="Q17" s="20"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56" t="s">
+    <row r="18" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="24"/>
-      <c r="K18" s="21">
-        <v>16</v>
+      <c r="K18" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="L18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="21">
-        <v>16</v>
-      </c>
-      <c r="O18" s="21" t="s">
+      <c r="N18" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18" s="29" t="s">
         <v>50</v>
       </c>
       <c r="Q18" s="20"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>1</v>
       </c>
@@ -2751,71 +2827,71 @@
         <v>8</v>
       </c>
       <c r="I19" s="24"/>
-      <c r="N19" s="21">
+      <c r="N19" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="62" t="s">
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="66"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="24"/>
-      <c r="N20" s="21">
-        <v>18</v>
+      <c r="N20" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="O20" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="66"/>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="24"/>
-      <c r="N21" s="21">
-        <v>19</v>
+      <c r="N21" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="O21" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="24"/>
-      <c r="N22" s="21">
-        <v>20</v>
+      <c r="N22" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="O22" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>9</v>
       </c>
@@ -2841,79 +2917,79 @@
         <v>16</v>
       </c>
       <c r="I23" s="24"/>
-      <c r="N23" s="21">
-        <v>21</v>
+      <c r="N23" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="O23" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="65" t="s">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="65" t="s">
+      <c r="H24" s="67" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="24"/>
-      <c r="N24" s="21">
-        <v>22</v>
+      <c r="N24" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="O24" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="24"/>
-      <c r="N25" s="21">
-        <v>23</v>
+      <c r="N25" s="28" t="s">
+        <v>118</v>
       </c>
       <c r="O25" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I26" s="24"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="21">
-        <v>24</v>
+      <c r="N26" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="O26" s="21"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="K27" s="1"/>
@@ -2922,7 +2998,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>1</v>
       </c>
@@ -2948,113 +3024,115 @@
         <v>8</v>
       </c>
       <c r="I28" s="24"/>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-    </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="69" t="s">
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75" t="s">
+      <c r="F29" s="59"/>
+      <c r="G29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="65" t="s">
         <v>85</v>
       </c>
       <c r="I29" s="24"/>
       <c r="K29" s="10">
         <v>1</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-    </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
       <c r="I30" s="24"/>
       <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="61" t="s">
+      <c r="L30" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-    </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="24"/>
       <c r="K31" s="10">
         <v>3</v>
       </c>
-      <c r="L31" s="60" t="s">
+      <c r="L31" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="24"/>
       <c r="K32" s="3">
         <v>4</v>
       </c>
-      <c r="L32" s="61" t="s">
+      <c r="L32" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-    </row>
-    <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+    </row>
+    <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="24"/>
       <c r="K33" s="10">
         <v>5</v>
       </c>
-      <c r="L33" s="60" t="s">
+      <c r="L33" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-    </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I34" s="24"/>
       <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
+      <c r="L34" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="63">

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4F7900-3082-402E-AB6A-F85CE2116DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527ACED8-E34E-4F9C-9086-BF72AFC8BF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
     <sheet name="Snake + PA" sheetId="2" r:id="rId2"/>
+    <sheet name="Split Map" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
   <si>
     <t>Input</t>
   </si>
@@ -398,13 +399,19 @@
   </si>
   <si>
     <t>Bottom 8</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Bottom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +554,21 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -710,7 +732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -862,11 +884,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -911,6 +953,63 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -932,113 +1031,99 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,9 +1298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1253,7 +1338,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1359,7 +1444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1501,7 +1586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1512,7 +1597,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,10 +1644,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="4">
@@ -1586,8 +1671,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="5">
         <v>2</v>
       </c>
@@ -1607,8 +1692,8 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="4">
         <v>3</v>
       </c>
@@ -1632,8 +1717,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="5">
         <v>4</v>
       </c>
@@ -1657,8 +1742,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="4">
         <v>5</v>
       </c>
@@ -1682,8 +1767,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="5">
         <v>6</v>
       </c>
@@ -1707,8 +1792,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -1732,8 +1817,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -1757,8 +1842,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -1782,59 +1867,59 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="4">
         <v>11</v>
       </c>
       <c r="D12" s="26">
         <v>11</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="5">
         <v>12</v>
       </c>
       <c r="D13" s="27">
         <v>12</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="4">
         <v>13</v>
       </c>
@@ -1854,8 +1939,8 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="5">
         <v>14</v>
       </c>
@@ -1875,10 +1960,10 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="38" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="9">
@@ -1900,8 +1985,8 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="8">
         <v>16</v>
       </c>
@@ -1921,10 +2006,10 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="18">
@@ -1946,8 +2031,8 @@
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="19">
         <v>18</v>
       </c>
@@ -1967,10 +2052,10 @@
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="35" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="11">
@@ -1992,8 +2077,8 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="12">
         <v>20</v>
       </c>
@@ -2013,8 +2098,8 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="11">
         <v>21</v>
       </c>
@@ -2034,10 +2119,10 @@
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="54" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="15">
@@ -2059,8 +2144,8 @@
       <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="16">
         <v>23</v>
       </c>
@@ -2088,13 +2173,13 @@
       <c r="D25" s="14">
         <v>8</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2105,13 +2190,13 @@
       <c r="D26" s="14">
         <v>9</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
@@ -2122,13 +2207,13 @@
       <c r="D27" s="14">
         <v>10</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
@@ -2139,19 +2224,19 @@
       <c r="D28" s="14">
         <v>11</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="50" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="6">
@@ -2171,8 +2256,8 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="7">
         <v>29</v>
       </c>
@@ -2192,8 +2277,8 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="6">
         <v>30</v>
       </c>
@@ -2213,8 +2298,8 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="7">
         <v>31</v>
       </c>
@@ -2232,8 +2317,8 @@
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="6">
         <v>32</v>
       </c>
@@ -2252,17 +2337,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E12:I12"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="E26:I26"/>
@@ -2271,6 +2345,17 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2282,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036672A4-8952-44C6-9E0D-0D4906E8D835}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,37 +2386,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="24"/>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="N1" s="61" t="s">
+      <c r="L1" s="69"/>
+      <c r="N1" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="61"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="24"/>
       <c r="K2" s="21" t="s">
         <v>21</v>
@@ -2511,19 +2596,19 @@
       <c r="A8" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="57" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="72" t="s">
         <v>69</v>
       </c>
       <c r="I8" s="24"/>
@@ -2543,13 +2628,13 @@
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
       <c r="I9" s="24"/>
       <c r="K9" s="21" t="s">
         <v>102</v>
@@ -2582,16 +2667,16 @@
       <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
       <c r="I11" s="24"/>
       <c r="K11" s="21" t="s">
         <v>104</v>
@@ -2651,25 +2736,25 @@
       <c r="A13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="59"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="24"/>
       <c r="K13" s="21" t="s">
         <v>106</v>
@@ -2687,13 +2772,13 @@
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="59"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="24"/>
       <c r="K14" s="21" t="s">
         <v>107</v>
@@ -2750,16 +2835,16 @@
       <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="24"/>
       <c r="K17" s="21" t="s">
         <v>110</v>
@@ -2776,16 +2861,16 @@
       <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="24"/>
       <c r="K18" s="21" t="s">
         <v>111</v>
@@ -2835,28 +2920,28 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="59"/>
+      <c r="H20" s="56"/>
       <c r="I20" s="24"/>
       <c r="N20" s="21" t="s">
         <v>113</v>
@@ -2866,14 +2951,14 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="59"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="56"/>
       <c r="I21" s="24"/>
       <c r="N21" s="28" t="s">
         <v>114</v>
@@ -2925,22 +3010,22 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="67" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="60" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="24"/>
@@ -2952,14 +3037,14 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="24"/>
       <c r="N25" s="28" t="s">
         <v>118</v>
@@ -2980,16 +3065,16 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="K27" s="1"/>
@@ -3024,13 +3109,13 @@
         <v>8</v>
       </c>
       <c r="I28" s="24"/>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
@@ -3039,16 +3124,16 @@
       <c r="B29" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="59"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="65" t="s">
         <v>9</v>
       </c>
@@ -3059,96 +3144,117 @@
       <c r="K29" s="10">
         <v>1</v>
       </c>
-      <c r="L29" s="63" t="s">
+      <c r="L29" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="65"/>
       <c r="H30" s="65"/>
       <c r="I30" s="24"/>
       <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="64" t="s">
+      <c r="L30" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="24"/>
       <c r="K31" s="10">
         <v>3</v>
       </c>
-      <c r="L31" s="63" t="s">
+      <c r="L31" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="24"/>
       <c r="K32" s="3">
         <v>4</v>
       </c>
-      <c r="L32" s="64" t="s">
+      <c r="L32" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="24"/>
       <c r="K33" s="10">
         <v>5</v>
       </c>
-      <c r="L33" s="63" t="s">
+      <c r="L33" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I34" s="24"/>
       <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="L34" s="64" t="s">
+      <c r="L34" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -3165,40 +3271,19 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3208,4 +3293,234 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728856F4-176B-4634-AD3E-524669928A0A}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="21" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+    </row>
+    <row r="2" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75">
+        <v>2</v>
+      </c>
+      <c r="C2" s="75">
+        <v>3</v>
+      </c>
+      <c r="D2" s="75">
+        <v>4</v>
+      </c>
+      <c r="E2" s="75">
+        <v>5</v>
+      </c>
+      <c r="F2" s="75">
+        <v>6</v>
+      </c>
+      <c r="G2" s="75">
+        <v>7</v>
+      </c>
+      <c r="H2" s="75">
+        <v>8</v>
+      </c>
+      <c r="I2" s="75">
+        <v>9</v>
+      </c>
+      <c r="J2" s="75">
+        <v>10</v>
+      </c>
+      <c r="K2" s="75">
+        <v>11</v>
+      </c>
+      <c r="L2" s="75">
+        <v>12</v>
+      </c>
+      <c r="M2" s="75">
+        <v>13</v>
+      </c>
+      <c r="N2" s="75">
+        <v>14</v>
+      </c>
+      <c r="O2" s="75">
+        <v>15</v>
+      </c>
+      <c r="P2" s="75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+    </row>
+    <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+    </row>
+    <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
+        <v>17</v>
+      </c>
+      <c r="B6" s="75">
+        <v>18</v>
+      </c>
+      <c r="C6" s="75">
+        <v>19</v>
+      </c>
+      <c r="D6" s="75">
+        <v>20</v>
+      </c>
+      <c r="E6" s="75">
+        <v>21</v>
+      </c>
+      <c r="F6" s="75">
+        <v>22</v>
+      </c>
+      <c r="G6" s="75">
+        <v>23</v>
+      </c>
+      <c r="H6" s="75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+    </row>
+    <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527ACED8-E34E-4F9C-9086-BF72AFC8BF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0505AC16-F23C-4325-BEB6-D7D87F0A925B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="126">
   <si>
     <t>Input</t>
   </si>
@@ -405,6 +405,22 @@
   </si>
   <si>
     <t>Bottom</t>
+  </si>
+  <si>
+    <t>Paul
+IEM</t>
+  </si>
+  <si>
+    <t>John
+IEM</t>
+  </si>
+  <si>
+    <t>Kenzi
+IEM</t>
+  </si>
+  <si>
+    <t>Talk
+Back</t>
   </si>
 </sst>
 </file>
@@ -908,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -953,170 +969,137 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,6 +1107,42 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,9 +1317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1338,7 +1357,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1444,7 +1463,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1586,7 +1605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1892,13 +1911,13 @@
       <c r="D12" s="26">
         <v>11</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
@@ -1909,13 +1928,13 @@
       <c r="D13" s="27">
         <v>12</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -1960,10 +1979,10 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="43" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="9">
@@ -1985,8 +2004,8 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="8">
         <v>16</v>
       </c>
@@ -2006,10 +2025,10 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="51" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="18">
@@ -2031,8 +2050,8 @@
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="19">
         <v>18</v>
       </c>
@@ -2052,10 +2071,10 @@
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="11">
@@ -2077,8 +2096,8 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="12">
         <v>20</v>
       </c>
@@ -2098,8 +2117,8 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="11">
         <v>21</v>
       </c>
@@ -2119,10 +2138,10 @@
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="15">
@@ -2144,8 +2163,8 @@
       <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="16">
         <v>23</v>
       </c>
@@ -2173,13 +2192,13 @@
       <c r="D25" s="14">
         <v>8</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2190,13 +2209,13 @@
       <c r="D26" s="14">
         <v>9</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
@@ -2207,13 +2226,13 @@
       <c r="D27" s="14">
         <v>10</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
@@ -2224,19 +2243,19 @@
       <c r="D28" s="14">
         <v>11</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="6">
@@ -2256,8 +2275,8 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="7">
         <v>29</v>
       </c>
@@ -2277,8 +2296,8 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="6">
         <v>30</v>
       </c>
@@ -2298,8 +2317,8 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="7">
         <v>31</v>
       </c>
@@ -2317,8 +2336,8 @@
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="6">
         <v>32</v>
       </c>
@@ -2337,6 +2356,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E12:I12"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="E26:I26"/>
@@ -2345,17 +2375,6 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2368,7 +2387,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O26"/>
+      <selection activeCell="B29" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,37 +2405,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="24"/>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="69"/>
-      <c r="N1" s="70" t="s">
+      <c r="L1" s="62"/>
+      <c r="N1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="70"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="24"/>
       <c r="K2" s="21" t="s">
         <v>21</v>
@@ -2473,28 +2492,28 @@
       <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="59" t="s">
         <v>65</v>
       </c>
       <c r="I4" s="24"/>
@@ -2513,14 +2532,14 @@
       <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="24"/>
       <c r="K5" s="21" t="s">
         <v>98</v>
@@ -2593,22 +2612,22 @@
       <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="58" t="s">
         <v>69</v>
       </c>
       <c r="I8" s="24"/>
@@ -2627,14 +2646,14 @@
       <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="24"/>
       <c r="K9" s="21" t="s">
         <v>102</v>
@@ -2667,16 +2686,16 @@
       <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="24"/>
       <c r="K11" s="21" t="s">
         <v>104</v>
@@ -2733,28 +2752,28 @@
       <c r="Q12" s="20"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="56"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="24"/>
       <c r="K13" s="21" t="s">
         <v>106</v>
@@ -2771,14 +2790,14 @@
       <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="56"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="24"/>
       <c r="K14" s="21" t="s">
         <v>107</v>
@@ -2835,16 +2854,16 @@
       <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="24"/>
       <c r="K17" s="21" t="s">
         <v>110</v>
@@ -2861,16 +2880,16 @@
       <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="24"/>
       <c r="K18" s="21" t="s">
         <v>111</v>
@@ -2920,28 +2939,28 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="56"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="24"/>
       <c r="N20" s="21" t="s">
         <v>113</v>
@@ -2951,14 +2970,14 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="56"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="24"/>
       <c r="N21" s="28" t="s">
         <v>114</v>
@@ -3010,22 +3029,22 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="60" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="H24" s="69" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="24"/>
@@ -3037,14 +3056,14 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="24"/>
       <c r="N25" s="28" t="s">
         <v>118</v>
@@ -3065,16 +3084,16 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="K27" s="1"/>
@@ -3109,118 +3128,165 @@
         <v>8</v>
       </c>
       <c r="I28" s="24"/>
-      <c r="K28" s="71" t="s">
+      <c r="K28" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="65" t="s">
+      <c r="F29" s="61"/>
+      <c r="G29" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="67" t="s">
         <v>85</v>
       </c>
       <c r="I29" s="24"/>
       <c r="K29" s="10">
         <v>1</v>
       </c>
-      <c r="L29" s="67" t="s">
+      <c r="L29" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="24"/>
       <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="68" t="s">
+      <c r="L30" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="24"/>
       <c r="K31" s="10">
         <v>3</v>
       </c>
-      <c r="L31" s="67" t="s">
+      <c r="L31" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="24"/>
       <c r="K32" s="3">
         <v>4</v>
       </c>
-      <c r="L32" s="68" t="s">
+      <c r="L32" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="24"/>
       <c r="K33" s="10">
         <v>5</v>
       </c>
-      <c r="L33" s="67" t="s">
+      <c r="L33" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I34" s="24"/>
       <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="L34" s="68" t="s">
+      <c r="L34" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A11:H11"/>
@@ -3237,53 +3303,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3297,228 +3316,282 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728856F4-176B-4634-AD3E-524669928A0A}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="21" width="14.5703125" customWidth="1"/>
+    <col min="1" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="22" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="J1" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-    </row>
-    <row r="2" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+    </row>
+    <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="31">
         <v>2</v>
       </c>
-      <c r="C2" s="75">
+      <c r="C2" s="31">
         <v>3</v>
       </c>
-      <c r="D2" s="75">
+      <c r="D2" s="31">
         <v>4</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2" s="31">
         <v>5</v>
       </c>
-      <c r="F2" s="75">
+      <c r="F2" s="31">
         <v>6</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2" s="31">
         <v>7</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="31">
         <v>8</v>
       </c>
-      <c r="I2" s="75">
+      <c r="J2" s="31">
         <v>9</v>
       </c>
-      <c r="J2" s="75">
+      <c r="K2" s="31">
         <v>10</v>
       </c>
-      <c r="K2" s="75">
+      <c r="L2" s="31">
         <v>11</v>
       </c>
-      <c r="L2" s="75">
+      <c r="M2" s="31">
         <v>12</v>
       </c>
-      <c r="M2" s="75">
+      <c r="N2" s="31">
         <v>13</v>
       </c>
-      <c r="N2" s="75">
+      <c r="O2" s="31">
         <v>14</v>
       </c>
-      <c r="O2" s="75">
+      <c r="P2" s="31">
         <v>15</v>
       </c>
-      <c r="P2" s="75">
+      <c r="Q2" s="31">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="J3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="K3" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="L3" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="M3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="85" t="s">
+      <c r="N3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="O3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="85" t="s">
+      <c r="P3" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="84" t="s">
+      <c r="Q3" s="85" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-    </row>
-    <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+    <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-    </row>
-    <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="J5" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+    </row>
+    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <v>17</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="31">
         <v>18</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="31">
         <v>19</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="31">
         <v>20</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="31">
         <v>21</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="31">
         <v>22</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="31">
         <v>23</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="31">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="J6" s="31">
+        <v>25</v>
+      </c>
+      <c r="K6" s="31">
+        <v>26</v>
+      </c>
+      <c r="L6" s="31">
+        <v>27</v>
+      </c>
+      <c r="M6" s="31">
+        <v>28</v>
+      </c>
+      <c r="N6" s="31">
+        <v>29</v>
+      </c>
+      <c r="O6" s="31">
+        <v>30</v>
+      </c>
+      <c r="P6" s="31">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-    </row>
-    <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="J1:Q1"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="J5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0505AC16-F23C-4325-BEB6-D7D87F0A925B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED86617A-5E99-44A5-999A-F55914318321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
   <si>
     <t>Input</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Internal</t>
   </si>
   <si>
-    <t>Clip</t>
-  </si>
-  <si>
     <t>Shure SM137</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
   </si>
   <si>
     <t>Shure 55SH</t>
-  </si>
-  <si>
-    <t>Hang Stand</t>
   </si>
   <si>
     <t>Sennheiser E609</t>
@@ -421,6 +415,24 @@
   <si>
     <t>Talk
 Back</t>
+  </si>
+  <si>
+    <t>Amp Mic Stand</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Drum Clamp</t>
+  </si>
+  <si>
+    <t>Bongo Stand</t>
+  </si>
+  <si>
+    <t>Hanging Mic Stand</t>
+  </si>
+  <si>
+    <t>Boom Mic Stand</t>
   </si>
 </sst>
 </file>
@@ -748,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -832,54 +844,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -924,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -965,14 +929,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -982,166 +992,82 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1317,9 +1243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1357,7 +1283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1463,7 +1389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1605,7 +1531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1615,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,24 +1553,24 @@
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" customWidth="1"/>
     <col min="10" max="22" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>0</v>
@@ -1663,11 +1589,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>31</v>
+      <c r="A2" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -1686,12 +1612,12 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="5">
         <v>2</v>
       </c>
@@ -1705,14 +1631,14 @@
         <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="4">
         <v>3</v>
       </c>
@@ -1723,21 +1649,21 @@
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="5">
         <v>4</v>
       </c>
@@ -1751,18 +1677,18 @@
         <v>27</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="4">
         <v>5</v>
       </c>
@@ -1776,18 +1702,18 @@
         <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="5">
         <v>6</v>
       </c>
@@ -1801,18 +1727,18 @@
         <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -1826,18 +1752,18 @@
         <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -1845,24 +1771,24 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -1870,75 +1796,75 @@
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="E11" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="4">
         <v>11</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
+      <c r="E12" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="5">
         <v>12</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="5">
         <v>12</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
+      <c r="E13" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="4">
         <v>13</v>
       </c>
@@ -1946,20 +1872,20 @@
         <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="5">
         <v>14</v>
       </c>
@@ -1973,17 +1899,17 @@
         <v>26</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>41</v>
+      <c r="A16" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="9">
         <v>15</v>
@@ -1992,20 +1918,20 @@
         <v>15</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="8">
         <v>16</v>
       </c>
@@ -2013,23 +1939,23 @@
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>44</v>
+      <c r="A18" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="18">
         <v>17</v>
@@ -2038,20 +1964,20 @@
         <v>1</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="19">
         <v>18</v>
       </c>
@@ -2059,23 +1985,23 @@
         <v>2</v>
       </c>
       <c r="E19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="G19" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>37</v>
+      <c r="A20" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="11">
         <v>19</v>
@@ -2087,17 +2013,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="12">
         <v>20</v>
       </c>
@@ -2108,17 +2034,17 @@
         <v>19</v>
       </c>
       <c r="F21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="57"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="11">
         <v>21</v>
       </c>
@@ -2126,23 +2052,23 @@
         <v>5</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>43</v>
+      <c r="A23" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="15">
         <v>22</v>
@@ -2154,17 +2080,17 @@
         <v>1</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="16">
         <v>23</v>
       </c>
@@ -2175,10 +2101,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -2192,13 +2118,13 @@
       <c r="D25" s="14">
         <v>8</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
+      <c r="E25" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2209,13 +2135,13 @@
       <c r="D26" s="14">
         <v>9</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="E26" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
@@ -2226,13 +2152,13 @@
       <c r="D27" s="14">
         <v>10</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="E27" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
@@ -2243,20 +2169,20 @@
       <c r="D28" s="14">
         <v>11</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="E28" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>38</v>
+      <c r="A29" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="6">
         <v>28</v>
@@ -2265,18 +2191,20 @@
         <v>12</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="G29" s="6" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="7">
         <v>29</v>
       </c>
@@ -2284,20 +2212,20 @@
         <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="6">
         <v>30</v>
       </c>
@@ -2308,17 +2236,17 @@
         <v>3</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="7">
         <v>31</v>
       </c>
@@ -2328,16 +2256,18 @@
       <c r="E32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="G32" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="6">
         <v>32</v>
       </c>
@@ -2345,28 +2275,19 @@
         <v>16</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G33" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E12:I12"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="E26:I26"/>
@@ -2375,6 +2296,17 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2405,49 +2337,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="A1" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="24"/>
       <c r="K1" s="62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L1" s="62"/>
       <c r="N1" s="63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="24"/>
       <c r="K2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="20"/>
     </row>
@@ -2478,13 +2410,13 @@
       </c>
       <c r="I3" s="24"/>
       <c r="K3" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>10</v>
@@ -2492,39 +2424,39 @@
       <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="59" t="s">
-        <v>65</v>
+      <c r="H4" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="I4" s="24"/>
       <c r="K4" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L4" s="21" t="s">
         <v>11</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>11</v>
@@ -2532,42 +2464,42 @@
       <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="24"/>
       <c r="K5" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I6" s="24"/>
       <c r="K6" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="20"/>
     </row>
@@ -2598,71 +2530,71 @@
       </c>
       <c r="I7" s="24"/>
       <c r="K7" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="59" t="s">
+      <c r="A8" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>69</v>
+      <c r="G8" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>67</v>
       </c>
       <c r="I8" s="24"/>
       <c r="K8" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
       <c r="I9" s="24"/>
       <c r="K9" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O9" s="21" t="s">
         <v>1</v>
@@ -2672,13 +2604,13 @@
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I10" s="24"/>
       <c r="K10" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>2</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O10" s="21" t="s">
         <v>2</v>
@@ -2686,25 +2618,25 @@
       <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="24"/>
       <c r="K11" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L11" s="21" t="s">
         <v>18</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O11" s="21" t="s">
         <v>18</v>
@@ -2738,13 +2670,13 @@
       </c>
       <c r="I12" s="24"/>
       <c r="K12" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L12" s="21" t="s">
         <v>19</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>19</v>
@@ -2752,61 +2684,61 @@
       <c r="Q12" s="20"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="61"/>
+      <c r="G13" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="49"/>
       <c r="I13" s="24"/>
       <c r="K13" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="61"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="24"/>
       <c r="K14" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L14" s="21" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O14" s="21" t="s">
         <v>3</v>
@@ -2824,13 +2756,13 @@
       <c r="H15" s="1"/>
       <c r="I15" s="24"/>
       <c r="K15" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L15" s="21" t="s">
         <v>4</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O15" s="21" t="s">
         <v>4</v>
@@ -2840,13 +2772,13 @@
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="24"/>
       <c r="K16" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>5</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O16" s="21" t="s">
         <v>5</v>
@@ -2854,54 +2786,54 @@
       <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="A17" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="24"/>
       <c r="K17" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="24"/>
       <c r="K18" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="O18" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="Q18" s="20"/>
     </row>
@@ -2931,56 +2863,56 @@
         <v>8</v>
       </c>
       <c r="I19" s="24"/>
-      <c r="N19" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="O19" s="28" t="s">
+      <c r="N19" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="71" t="s">
+      <c r="A20" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="74" t="s">
+      <c r="E20" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="74" t="s">
+      <c r="G20" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="61"/>
+      <c r="H20" s="49"/>
       <c r="I20" s="24"/>
       <c r="N20" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O20" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="61"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="24"/>
-      <c r="N21" s="28" t="s">
-        <v>114</v>
+      <c r="N21" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="O21" s="21" t="s">
         <v>13</v>
@@ -2989,7 +2921,7 @@
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="24"/>
       <c r="N22" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O22" s="21" t="s">
         <v>14</v>
@@ -3021,55 +2953,55 @@
         <v>16</v>
       </c>
       <c r="I23" s="24"/>
-      <c r="N23" s="28" t="s">
-        <v>116</v>
+      <c r="N23" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="O23" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="69" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="53" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="24"/>
       <c r="N24" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O24" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="24"/>
-      <c r="N25" s="28" t="s">
-        <v>118</v>
+      <c r="N25" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3078,22 +3010,22 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O26" s="21"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="K27" s="1"/>
@@ -3137,122 +3069,143 @@
       <c r="O28" s="64"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="69" t="s">
+      <c r="E29" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="67" t="s">
+      <c r="F29" s="49"/>
+      <c r="G29" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="67" t="s">
-        <v>85</v>
+      <c r="H29" s="58" t="s">
+        <v>83</v>
       </c>
       <c r="I29" s="24"/>
       <c r="K29" s="10">
         <v>1</v>
       </c>
-      <c r="L29" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
+      <c r="L29" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
       <c r="I30" s="24"/>
       <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
+      <c r="L30" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="24"/>
       <c r="K31" s="10">
         <v>3</v>
       </c>
-      <c r="L31" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
+      <c r="L31" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="24"/>
       <c r="K32" s="3">
         <v>4</v>
       </c>
-      <c r="L32" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
+      <c r="L32" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="24"/>
       <c r="K33" s="10">
         <v>5</v>
       </c>
-      <c r="L33" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
+      <c r="L33" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I34" s="24"/>
       <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="L34" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
+      <c r="L34" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -3269,40 +3222,19 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3318,7 +3250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728856F4-176B-4634-AD3E-524669928A0A}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -3329,260 +3261,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="J1" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+    </row>
+    <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29">
+        <v>3</v>
+      </c>
+      <c r="D2" s="29">
+        <v>4</v>
+      </c>
+      <c r="E2" s="29">
+        <v>5</v>
+      </c>
+      <c r="F2" s="29">
+        <v>6</v>
+      </c>
+      <c r="G2" s="29">
+        <v>7</v>
+      </c>
+      <c r="H2" s="29">
+        <v>8</v>
+      </c>
+      <c r="J2" s="29">
+        <v>9</v>
+      </c>
+      <c r="K2" s="29">
+        <v>10</v>
+      </c>
+      <c r="L2" s="29">
+        <v>11</v>
+      </c>
+      <c r="M2" s="29">
+        <v>12</v>
+      </c>
+      <c r="N2" s="29">
+        <v>13</v>
+      </c>
+      <c r="O2" s="29">
+        <v>14</v>
+      </c>
+      <c r="P2" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="J5" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+    </row>
+    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>17</v>
+      </c>
+      <c r="B6" s="29">
+        <v>18</v>
+      </c>
+      <c r="C6" s="29">
+        <v>19</v>
+      </c>
+      <c r="D6" s="29">
+        <v>20</v>
+      </c>
+      <c r="E6" s="29">
+        <v>21</v>
+      </c>
+      <c r="F6" s="29">
+        <v>22</v>
+      </c>
+      <c r="G6" s="29">
+        <v>23</v>
+      </c>
+      <c r="H6" s="29">
+        <v>24</v>
+      </c>
+      <c r="J6" s="29">
+        <v>25</v>
+      </c>
+      <c r="K6" s="29">
+        <v>26</v>
+      </c>
+      <c r="L6" s="29">
+        <v>27</v>
+      </c>
+      <c r="M6" s="29">
+        <v>28</v>
+      </c>
+      <c r="N6" s="29">
+        <v>29</v>
+      </c>
+      <c r="O6" s="29">
+        <v>30</v>
+      </c>
+      <c r="P6" s="29">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="J1" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-    </row>
-    <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31">
-        <v>2</v>
-      </c>
-      <c r="C2" s="31">
-        <v>3</v>
-      </c>
-      <c r="D2" s="31">
-        <v>4</v>
-      </c>
-      <c r="E2" s="31">
-        <v>5</v>
-      </c>
-      <c r="F2" s="31">
-        <v>6</v>
-      </c>
-      <c r="G2" s="31">
-        <v>7</v>
-      </c>
-      <c r="H2" s="31">
-        <v>8</v>
-      </c>
-      <c r="J2" s="31">
-        <v>9</v>
-      </c>
-      <c r="K2" s="31">
-        <v>10</v>
-      </c>
-      <c r="L2" s="31">
-        <v>11</v>
-      </c>
-      <c r="M2" s="31">
-        <v>12</v>
-      </c>
-      <c r="N2" s="31">
-        <v>13</v>
-      </c>
-      <c r="O2" s="31">
-        <v>14</v>
-      </c>
-      <c r="P2" s="31">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="L7" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="J5" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-    </row>
-    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>17</v>
-      </c>
-      <c r="B6" s="31">
-        <v>18</v>
-      </c>
-      <c r="C6" s="31">
-        <v>19</v>
-      </c>
-      <c r="D6" s="31">
-        <v>20</v>
-      </c>
-      <c r="E6" s="31">
-        <v>21</v>
-      </c>
-      <c r="F6" s="31">
-        <v>22</v>
-      </c>
-      <c r="G6" s="31">
-        <v>23</v>
-      </c>
-      <c r="H6" s="31">
-        <v>24</v>
-      </c>
-      <c r="J6" s="31">
-        <v>25</v>
-      </c>
-      <c r="K6" s="31">
-        <v>26</v>
-      </c>
-      <c r="L6" s="31">
-        <v>27</v>
-      </c>
-      <c r="M6" s="31">
-        <v>28</v>
-      </c>
-      <c r="N6" s="31">
-        <v>29</v>
-      </c>
-      <c r="O6" s="31">
-        <v>30</v>
-      </c>
-      <c r="P6" s="31">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="31">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="84" t="s">
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="86" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED86617A-5E99-44A5-999A-F55914318321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C0ADE-0AC8-44D0-8351-2B44B24B6BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,13 +580,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -601,8 +594,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,12 +699,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF66CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -696,12 +706,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6188CD"/>
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -906,19 +916,18 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,8 +940,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,133 +950,140 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1197,6 +1213,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF0066FF"/>
       <color rgb="FF6188CD"/>
       <color rgb="FF15B1FF"/>
       <color rgb="FF4572C3"/>
@@ -1205,8 +1223,6 @@
       <color rgb="FF4B77C5"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFF99FF"/>
-      <color rgb="FF66CCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1243,9 +1259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1283,7 +1299,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1389,7 +1405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1531,7 +1547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1541,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,39 +1576,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="4">
@@ -1616,8 +1632,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="5">
         <v>2</v>
       </c>
@@ -1637,8 +1653,8 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4">
         <v>3</v>
       </c>
@@ -1662,8 +1678,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="5">
         <v>4</v>
       </c>
@@ -1687,8 +1703,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="4">
         <v>5</v>
       </c>
@@ -1712,8 +1728,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="5">
         <v>6</v>
       </c>
@@ -1737,8 +1753,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -1762,8 +1778,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -1787,8 +1803,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -1812,59 +1828,59 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="4">
         <v>11</v>
       </c>
       <c r="D12" s="4">
         <v>11</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="5">
         <v>12</v>
       </c>
       <c r="D13" s="5">
         <v>12</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="4">
         <v>13</v>
       </c>
@@ -1884,8 +1900,8 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="5">
         <v>14</v>
       </c>
@@ -1905,10 +1921,10 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="45" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="9">
@@ -1930,8 +1946,8 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="8">
         <v>16</v>
       </c>
@@ -1951,56 +1967,56 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>17</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>1</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="19">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="18">
         <v>18</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>2</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="11">
@@ -2022,8 +2038,8 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="12">
         <v>20</v>
       </c>
@@ -2043,8 +2059,8 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="11">
         <v>21</v>
       </c>
@@ -2070,47 +2086,47 @@
       <c r="B23" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="75">
         <v>22</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="75">
         <v>6</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="73"/>
       <c r="B24" s="74"/>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>23</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>7</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14">
         <v>24</v>
@@ -2118,16 +2134,16 @@
       <c r="D25" s="14">
         <v>8</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14">
         <v>25</v>
@@ -2135,16 +2151,16 @@
       <c r="D26" s="14">
         <v>9</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14">
         <v>26</v>
@@ -2152,16 +2168,16 @@
       <c r="D27" s="14">
         <v>10</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14">
         <v>27</v>
@@ -2169,19 +2185,19 @@
       <c r="D28" s="14">
         <v>11</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="6">
@@ -2203,8 +2219,8 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="7">
         <v>29</v>
       </c>
@@ -2224,8 +2240,8 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="6">
         <v>30</v>
       </c>
@@ -2245,8 +2261,8 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="7">
         <v>31</v>
       </c>
@@ -2266,8 +2282,8 @@
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="6">
         <v>32</v>
       </c>
@@ -2288,6 +2304,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E12:I12"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="E26:I26"/>
@@ -2296,17 +2323,6 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,413 +2353,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="62" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="23"/>
+      <c r="K1" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="N1" s="63" t="s">
+      <c r="L1" s="56"/>
+      <c r="N1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="63"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="24"/>
-      <c r="K2" s="21" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="23"/>
+      <c r="K2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="20"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>3</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>4</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>5</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>6</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <v>7</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>8</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="K3" s="21" t="s">
+      <c r="I3" s="23"/>
+      <c r="K3" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="20"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="K4" s="21" t="s">
+      <c r="I4" s="23"/>
+      <c r="K4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="24"/>
-      <c r="K5" s="21" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="23"/>
+      <c r="K5" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="24"/>
-      <c r="K6" s="21" t="s">
+      <c r="I6" s="23"/>
+      <c r="K6" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>9</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>10</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>11</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>12</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>13</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>14</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>15</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>16</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="K7" s="21" t="s">
+      <c r="I7" s="23"/>
+      <c r="K7" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="20"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="K8" s="21" t="s">
+      <c r="I8" s="23"/>
+      <c r="K8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="24"/>
-      <c r="K9" s="21" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="23"/>
+      <c r="K9" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="20"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="24"/>
-      <c r="K10" s="21" t="s">
+      <c r="I10" s="23"/>
+      <c r="K10" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="20"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="24"/>
-      <c r="K11" s="21" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="23"/>
+      <c r="K11" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="20"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>1</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>2</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>3</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>4</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>5</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>6</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>7</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>8</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="K12" s="21" t="s">
+      <c r="I12" s="23"/>
+      <c r="K12" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="20"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="24"/>
-      <c r="K13" s="21" t="s">
+      <c r="H13" s="55"/>
+      <c r="I13" s="23"/>
+      <c r="K13" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="24"/>
-      <c r="K14" s="21" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="23"/>
+      <c r="K14" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="20"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -2754,280 +2770,280 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="24"/>
-      <c r="K15" s="21" t="s">
+      <c r="I15" s="23"/>
+      <c r="K15" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="20"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="24"/>
-      <c r="K16" s="21" t="s">
+      <c r="I16" s="23"/>
+      <c r="K16" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="20"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="24"/>
-      <c r="K17" s="21" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="23"/>
+      <c r="K17" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="20"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="24"/>
-      <c r="K18" s="21" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="23"/>
+      <c r="K18" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="27" t="s">
+      <c r="N18" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q18" s="20"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>2</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>4</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>5</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>6</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>7</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>8</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="N19" s="26" t="s">
+      <c r="I19" s="23"/>
+      <c r="N19" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="26" t="s">
+      <c r="O19" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="24"/>
-      <c r="N20" s="21" t="s">
+      <c r="H20" s="55"/>
+      <c r="I20" s="23"/>
+      <c r="N20" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="O20" s="21" t="s">
+      <c r="O20" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="24"/>
-      <c r="N21" s="26" t="s">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="23"/>
+      <c r="N21" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="O21" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="24"/>
-      <c r="N22" s="21" t="s">
+      <c r="I22" s="23"/>
+      <c r="N22" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O22" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>9</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>10</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>11</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>12</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>13</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>14</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>15</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>16</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="N23" s="26" t="s">
+      <c r="I23" s="23"/>
+      <c r="N23" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="O23" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="53" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="53" t="s">
+      <c r="H24" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="N24" s="21" t="s">
+      <c r="I24" s="23"/>
+      <c r="N24" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="O24" s="21" t="s">
+      <c r="O24" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="24"/>
-      <c r="N25" s="26" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="23"/>
+      <c r="N25" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="O25" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="24"/>
+      <c r="I26" s="23"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="O26" s="21"/>
+      <c r="O26" s="20"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3035,143 +3051,190 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="22">
         <v>1</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>2</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>3</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <v>4</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>5</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <v>6</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="22">
         <v>7</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="22">
         <v>8</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="K28" s="64" t="s">
+      <c r="I28" s="23"/>
+      <c r="K28" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="58" t="s">
+      <c r="F29" s="55"/>
+      <c r="G29" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="24"/>
+      <c r="I29" s="23"/>
       <c r="K29" s="10">
         <v>1</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="24"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="23"/>
       <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="61" t="s">
+      <c r="L30" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="24"/>
+      <c r="I31" s="23"/>
       <c r="K31" s="10">
         <v>3</v>
       </c>
-      <c r="L31" s="60" t="s">
+      <c r="L31" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I32" s="24"/>
+      <c r="I32" s="23"/>
       <c r="K32" s="3">
         <v>4</v>
       </c>
-      <c r="L32" s="61" t="s">
+      <c r="L32" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="24"/>
+      <c r="I33" s="23"/>
       <c r="K33" s="10">
         <v>5</v>
       </c>
-      <c r="L33" s="60" t="s">
+      <c r="L33" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I34" s="24"/>
+      <c r="I34" s="23"/>
       <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="L34" s="61" t="s">
+      <c r="L34" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A11:H11"/>
@@ -3188,53 +3251,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3250,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728856F4-176B-4634-AD3E-524669928A0A}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,260 +3277,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="J1" s="66" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="J1" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <v>2</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>3</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>4</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <v>5</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <v>6</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <v>7</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <v>8</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="28">
         <v>9</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="28">
         <v>10</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="28">
         <v>11</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="28">
         <v>12</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="28">
         <v>13</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="28">
         <v>14</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="28">
         <v>15</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="Q2" s="28">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="J5" s="66" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="J5" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>17</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>18</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>19</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>20</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>21</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>22</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>23</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <v>24</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <v>25</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="28">
         <v>26</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="28">
         <v>27</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="28">
         <v>28</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="28">
         <v>29</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="28">
         <v>30</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="28">
         <v>31</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="28">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="34" t="s">
+      <c r="H7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="39" t="s">
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="37" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C0ADE-0AC8-44D0-8351-2B44B24B6BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7995B42C-FB7C-4842-BCB6-279C265440EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
     <sheet name="Snake + PA" sheetId="2" r:id="rId2"/>
     <sheet name="Split Map" sheetId="3" r:id="rId3"/>
+    <sheet name="Document Style" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="142">
   <si>
     <t>Input</t>
   </si>
@@ -433,13 +434,49 @@
   </si>
   <si>
     <t>Boom Mic Stand</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Cyan</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Drums, Vocals</t>
+  </si>
+  <si>
+    <t>Guitar, Vocals</t>
+  </si>
+  <si>
+    <t>Keys, Guitar, Vocals</t>
+  </si>
+  <si>
+    <t>Bass, Vocals</t>
+  </si>
+  <si>
+    <t>Magenta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,14 +532,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="48"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -617,8 +646,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,25 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC00CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,12 +715,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,6 +787,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0066FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00E266"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -907,27 +958,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -940,152 +989,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,16 +1271,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF2F2F2"/>
+      <color rgb="FF99FF99"/>
+      <color rgb="FFE2EFDA"/>
+      <color rgb="FF00E266"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF00B050"/>
+      <color rgb="FF70AD47"/>
+      <color rgb="FFFF66FF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF0066FF"/>
-      <color rgb="FF6188CD"/>
       <color rgb="FF15B1FF"/>
-      <color rgb="FF4572C3"/>
-      <color rgb="FF00B6F6"/>
-      <color rgb="FF7193D1"/>
-      <color rgb="FF4B77C5"/>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1557,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,745 +1634,734 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="70">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="70">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="5">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="4">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="70">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="70">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="70" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="5">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="4">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="70">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="70">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="70" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="5">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="4">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="70">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="70">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="70" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="5">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="4">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="70">
         <v>9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="70">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="70" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="5">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>10</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="4">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="70">
         <v>11</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="70">
         <v>11</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="5">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>12</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="4">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="70">
         <v>13</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="70">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="5">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="4">
         <v>14</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>14</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>15</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>15</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="8">
+      <c r="A17" s="73"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="81">
         <v>16</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="81">
         <v>16</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>17</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>1</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="18">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="16">
         <v>18</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>2</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>19</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>3</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="12">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="10">
         <v>20</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>4</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="11">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="9">
         <v>21</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>5</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="36">
         <v>22</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="36">
         <v>6</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="75" t="s">
+      <c r="G23" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="15">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="13">
         <v>23</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>7</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14">
+      <c r="A25" s="14"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12">
         <v>24</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>8</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14">
+      <c r="A26" s="14"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12">
         <v>25</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <v>9</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14">
+      <c r="A27" s="14"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12">
         <v>26</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>10</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14">
+      <c r="A28" s="14"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12">
         <v>27</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <v>11</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>28</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>12</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="7">
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="6">
         <v>29</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>13</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="6">
+      <c r="A31" s="74"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>14</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="7">
+      <c r="A32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="6">
         <v>31</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>15</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="6">
+      <c r="A33" s="74"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="5">
         <v>32</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>16</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E12:I12"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="E26:I26"/>
@@ -2323,6 +2370,17 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2335,7 +2393,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B30"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,15 +2421,15 @@
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="56" t="s">
+      <c r="I1" s="21"/>
+      <c r="K1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="N1" s="57" t="s">
+      <c r="L1" s="60"/>
+      <c r="N1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="57"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
@@ -2384,254 +2442,254 @@
       <c r="F2" s="54"/>
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
-      <c r="I2" s="23"/>
-      <c r="K2" s="20" t="s">
+      <c r="I2" s="21"/>
+      <c r="K2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="19"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <v>2</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>3</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>4</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>5</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>6</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>7</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <v>8</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="K3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="K3" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="19"/>
+      <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="K4" s="20" t="s">
+      <c r="I4" s="21"/>
+      <c r="K4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="23"/>
-      <c r="K5" s="20" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="21"/>
+      <c r="K5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="23"/>
-      <c r="K6" s="20" t="s">
+      <c r="I6" s="21"/>
+      <c r="K6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="20">
         <v>9</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>10</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>11</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>12</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>13</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>14</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>15</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="20">
         <v>16</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="K7" s="20" t="s">
+      <c r="I7" s="21"/>
+      <c r="K7" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="53" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="K8" s="20" t="s">
+      <c r="I8" s="21"/>
+      <c r="K8" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="23"/>
-      <c r="K9" s="20" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="21"/>
+      <c r="K9" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="23"/>
-      <c r="K10" s="20" t="s">
+      <c r="I10" s="21"/>
+      <c r="K10" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
@@ -2644,122 +2702,122 @@
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
-      <c r="I11" s="23"/>
-      <c r="K11" s="20" t="s">
+      <c r="I11" s="21"/>
+      <c r="K11" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>1</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <v>2</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="20">
         <v>3</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <v>4</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>5</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="20">
         <v>6</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="20">
         <v>7</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="20">
         <v>8</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="K12" s="20" t="s">
+      <c r="I12" s="21"/>
+      <c r="K12" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="23"/>
-      <c r="K13" s="20" t="s">
+      <c r="H13" s="48"/>
+      <c r="I13" s="21"/>
+      <c r="K13" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="23"/>
-      <c r="K14" s="20" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="21"/>
+      <c r="K14" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -2770,36 +2828,36 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="23"/>
-      <c r="K15" s="20" t="s">
+      <c r="I15" s="21"/>
+      <c r="K15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="23"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="21"/>
+      <c r="K16" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
@@ -2812,20 +2870,20 @@
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
       <c r="H17" s="54"/>
-      <c r="I17" s="23"/>
-      <c r="K17" s="20" t="s">
+      <c r="I17" s="21"/>
+      <c r="K17" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="54" t="s">
@@ -2838,197 +2896,197 @@
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
-      <c r="I18" s="23"/>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="21"/>
+      <c r="K18" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="20">
         <v>1</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <v>2</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="20">
         <v>3</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <v>4</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="20">
         <v>5</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="20">
         <v>6</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="20">
         <v>7</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="20">
         <v>8</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="N19" s="25" t="s">
+      <c r="I19" s="21"/>
+      <c r="N19" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="23"/>
-      <c r="N20" s="20" t="s">
+      <c r="H20" s="48"/>
+      <c r="I20" s="21"/>
+      <c r="N20" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="23"/>
-      <c r="N21" s="25" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="21"/>
+      <c r="N21" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="23"/>
-      <c r="N22" s="20" t="s">
+      <c r="I22" s="21"/>
+      <c r="N22" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="20">
         <v>9</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>10</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>11</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="20">
         <v>12</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="20">
         <v>13</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="20">
         <v>14</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="20">
         <v>15</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="20">
         <v>16</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="N23" s="25" t="s">
+      <c r="I23" s="21"/>
+      <c r="N23" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="62" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="N24" s="20" t="s">
+      <c r="I24" s="21"/>
+      <c r="N24" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="23"/>
-      <c r="N25" s="25" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="21"/>
+      <c r="N25" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="23"/>
+      <c r="I26" s="21"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="O26" s="20"/>
+      <c r="O26" s="18"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3042,8 +3100,8 @@
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="H27" s="54"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3051,156 +3109,177 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="20">
         <v>1</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="20">
         <v>2</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="20">
         <v>3</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="20">
         <v>4</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="20">
         <v>5</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="20">
         <v>6</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="20">
         <v>7</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="20">
         <v>8</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="K28" s="58" t="s">
+      <c r="I28" s="21"/>
+      <c r="K28" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="61" t="s">
+      <c r="F29" s="48"/>
+      <c r="G29" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="K29" s="10">
+      <c r="I29" s="21"/>
+      <c r="K29" s="8">
         <v>1</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="23"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="21"/>
       <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="60" t="s">
+      <c r="L30" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="23"/>
-      <c r="K31" s="10">
+      <c r="I31" s="21"/>
+      <c r="K31" s="8">
         <v>3</v>
       </c>
-      <c r="L31" s="59" t="s">
+      <c r="L31" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I32" s="23"/>
+      <c r="I32" s="21"/>
       <c r="K32" s="3">
         <v>4</v>
       </c>
-      <c r="L32" s="60" t="s">
+      <c r="L32" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="23"/>
-      <c r="K33" s="10">
+      <c r="I33" s="21"/>
+      <c r="K33" s="8">
         <v>5</v>
       </c>
-      <c r="L33" s="59" t="s">
+      <c r="L33" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I34" s="23"/>
+      <c r="I34" s="21"/>
       <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="L34" s="60" t="s">
+      <c r="L34" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -3217,40 +3296,19 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3266,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728856F4-176B-4634-AD3E-524669928A0A}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,260 +3335,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="J1" s="67" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="J1" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>2</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="26">
         <v>3</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="26">
         <v>4</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="26">
         <v>5</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="26">
         <v>6</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="26">
         <v>7</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="26">
         <v>8</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="26">
         <v>9</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="26">
         <v>10</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="26">
         <v>11</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="26">
         <v>12</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="26">
         <v>13</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="26">
         <v>14</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="26">
         <v>15</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="26">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="J5" s="67" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="J5" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>17</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>18</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <v>19</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <v>20</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="26">
         <v>21</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="26">
         <v>22</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <v>23</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>24</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <v>25</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="26">
         <v>26</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="26">
         <v>27</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="26">
         <v>28</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="26">
         <v>29</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="26">
         <v>30</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="26">
         <v>31</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="26">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="76" t="s">
+      <c r="H7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="37" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="33" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3544,4 +3602,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0FC92A-968B-4411-B6B8-D166D6F99331}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7995B42C-FB7C-4842-BCB6-279C265440EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC683D83-E8C8-46A6-94DF-62EB3CE8532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -1024,126 +1024,126 @@
     <xf numFmtId="0" fontId="21" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,8 +1295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}" name="Table2" displayName="Table2" ref="K2:L18" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="K2:L18" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}" name="Table2" displayName="Table2" ref="N2:O18" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="N2:O18" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{49BF8DF2-5386-41E7-B011-F853E4FE75C2}" name="Channel" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{85FAB182-B344-4EA5-B466-95EC3E4BC71D}" name="Name" dataDxfId="3"/>
@@ -1306,8 +1306,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}" name="Table3" displayName="Table3" ref="N2:O26" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="N2:O26" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}" name="Table3" displayName="Table3" ref="K2:L26" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="K2:L26" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B9139E83-F123-47D5-9BE7-0B1EAD9E7473}" name="Channel" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{27CB3066-5421-4E5F-89F2-CBCCA63E2B40}" name="Name" dataDxfId="0"/>
@@ -1663,35 +1663,35 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="42">
         <v>1</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="42">
         <v>1</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -1711,33 +1711,33 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="70">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="42">
         <v>3</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="42">
         <v>3</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="42" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="4">
         <v>4</v>
       </c>
@@ -1761,33 +1761,33 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="70">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="42">
         <v>5</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="42">
         <v>5</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="42" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="4">
         <v>6</v>
       </c>
@@ -1811,33 +1811,33 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="70">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="42">
         <v>7</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="42">
         <v>7</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="42" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -1861,105 +1861,105 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="70">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="42">
         <v>9</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="42">
         <v>9</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="42" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="70">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="42">
         <v>11</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="42">
         <v>11</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="4">
         <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>12</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="70">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="42">
         <v>13</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="42">
         <v>13</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="4">
         <v>14</v>
       </c>
@@ -1979,10 +1979,10 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="53" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="7">
@@ -2004,31 +2004,31 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="81">
+      <c r="A17" s="60"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="45">
         <v>16</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="45">
         <v>16</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="15">
@@ -2050,8 +2050,8 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="16">
         <v>18</v>
       </c>
@@ -2071,10 +2071,10 @@
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="59" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="9">
@@ -2096,8 +2096,8 @@
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="10">
         <v>20</v>
       </c>
@@ -2117,8 +2117,8 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="9">
         <v>21</v>
       </c>
@@ -2138,10 +2138,10 @@
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="50" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="36">
@@ -2163,8 +2163,8 @@
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="13">
         <v>23</v>
       </c>
@@ -2192,13 +2192,13 @@
       <c r="D25" s="12">
         <v>8</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
@@ -2209,13 +2209,13 @@
       <c r="D26" s="12">
         <v>9</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
@@ -2226,13 +2226,13 @@
       <c r="D27" s="12">
         <v>10</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
@@ -2243,19 +2243,19 @@
       <c r="D28" s="12">
         <v>11</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="5">
@@ -2277,8 +2277,8 @@
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="75"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="6">
         <v>29</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="5">
         <v>30</v>
       </c>
@@ -2319,8 +2319,8 @@
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="75"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="6">
         <v>31</v>
       </c>
@@ -2340,8 +2340,8 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
-      <c r="B33" s="75"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="5">
         <v>32</v>
       </c>
@@ -2362,6 +2362,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E12:I12"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="E26:I26"/>
@@ -2370,17 +2381,6 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2393,7 +2393,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,37 +2411,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="21"/>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="66"/>
+      <c r="N1" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="N1" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="61"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="21"/>
       <c r="K2" s="18" t="s">
         <v>21</v>
@@ -2498,28 +2498,28 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="62" t="s">
         <v>63</v>
       </c>
       <c r="I4" s="21"/>
@@ -2538,14 +2538,14 @@
       <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="21"/>
       <c r="K5" s="18" t="s">
         <v>96</v>
@@ -2618,22 +2618,22 @@
       <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="76" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="61" t="s">
         <v>67</v>
       </c>
       <c r="I8" s="21"/>
@@ -2652,14 +2652,14 @@
       <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
       <c r="I9" s="21"/>
       <c r="K9" s="18" t="s">
         <v>100</v>
@@ -2692,16 +2692,16 @@
       <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="21"/>
       <c r="K11" s="18" t="s">
         <v>102</v>
@@ -2758,28 +2758,28 @@
       <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="48"/>
+      <c r="H13" s="64"/>
       <c r="I13" s="21"/>
       <c r="K13" s="18" t="s">
         <v>104</v>
@@ -2796,14 +2796,14 @@
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="48"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="21"/>
       <c r="K14" s="18" t="s">
         <v>105</v>
@@ -2860,16 +2860,16 @@
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
       <c r="I17" s="21"/>
       <c r="K17" s="18" t="s">
         <v>108</v>
@@ -2886,27 +2886,27 @@
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="21"/>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="24" t="s">
+      <c r="O18" s="18" t="s">
         <v>48</v>
       </c>
       <c r="Q18" s="17"/>
@@ -2937,67 +2937,67 @@
         <v>8</v>
       </c>
       <c r="I19" s="21"/>
-      <c r="N19" s="23" t="s">
+      <c r="K19" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="L19" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="48"/>
+      <c r="H20" s="64"/>
       <c r="I20" s="21"/>
-      <c r="N20" s="18" t="s">
+      <c r="K20" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="L20" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="48"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="64"/>
       <c r="I21" s="21"/>
-      <c r="N21" s="23" t="s">
+      <c r="K21" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="L21" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="21"/>
-      <c r="N22" s="18" t="s">
+      <c r="K22" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="L22" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3027,79 +3027,77 @@
         <v>16</v>
       </c>
       <c r="I23" s="21"/>
-      <c r="N23" s="23" t="s">
+      <c r="K23" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="L23" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="51" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="73" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="21"/>
-      <c r="N24" s="18" t="s">
+      <c r="K24" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="L24" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
       <c r="I25" s="21"/>
-      <c r="N25" s="23" t="s">
+      <c r="K25" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="L25" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I26" s="21"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="K26" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="18"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="O26" s="18"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
       <c r="K27" s="1"/>
@@ -3134,118 +3132,165 @@
         <v>8</v>
       </c>
       <c r="I28" s="21"/>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="55" t="s">
+      <c r="F29" s="64"/>
+      <c r="G29" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H29" s="70" t="s">
         <v>83</v>
       </c>
       <c r="I29" s="21"/>
       <c r="K29" s="8">
         <v>1</v>
       </c>
-      <c r="L29" s="58" t="s">
+      <c r="L29" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
       <c r="I30" s="21"/>
       <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="59" t="s">
+      <c r="L30" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="21"/>
       <c r="K31" s="8">
         <v>3</v>
       </c>
-      <c r="L31" s="58" t="s">
+      <c r="L31" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="21"/>
       <c r="K32" s="3">
         <v>4</v>
       </c>
-      <c r="L32" s="59" t="s">
+      <c r="L32" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="21"/>
       <c r="K33" s="8">
         <v>5</v>
       </c>
-      <c r="L33" s="58" t="s">
+      <c r="L33" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I34" s="21"/>
       <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="L34" s="59" t="s">
+      <c r="L34" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A11:H11"/>
@@ -3262,53 +3307,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3335,26 +3333,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="J1" s="64" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="J1" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
@@ -3407,16 +3405,16 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="44" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="27" t="s">
@@ -3467,26 +3465,26 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="J5" s="64" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="J5" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
@@ -3539,25 +3537,25 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="30"/>
@@ -3629,13 +3627,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="41" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3651,35 +3649,35 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="40" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="38" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="39" t="s">
         <v>138</v>
       </c>
     </row>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC683D83-E8C8-46A6-94DF-62EB3CE8532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FDC720-7F6F-40DC-AD66-7DFE6EAD2C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -821,7 +821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -863,17 +863,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -882,19 +871,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -949,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -986,9 +962,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,6 +1011,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1051,98 +1056,56 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,7 +1579,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,35 +1626,35 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>1</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="41">
         <v>1</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -1711,33 +1674,33 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="42">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="41">
         <v>3</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>3</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="41" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="4">
         <v>4</v>
       </c>
@@ -1761,33 +1724,33 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="42">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="41">
         <v>5</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>5</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="41" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="4">
         <v>6</v>
       </c>
@@ -1811,33 +1774,33 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="42">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="41">
         <v>7</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>7</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="41" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -1861,105 +1824,105 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="42">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="41">
         <v>9</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>9</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="41" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="42">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="41">
         <v>11</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>11</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="4">
         <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>12</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="42">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="41">
         <v>13</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>13</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="4">
         <v>14</v>
       </c>
@@ -1979,10 +1942,10 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="52" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="7">
@@ -2004,31 +1967,31 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="45">
+      <c r="A17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="44">
         <v>16</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <v>16</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="46" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="15">
@@ -2050,8 +2013,8 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="16">
         <v>18</v>
       </c>
@@ -2071,10 +2034,10 @@
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="9">
@@ -2096,8 +2059,8 @@
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="10">
         <v>20</v>
       </c>
@@ -2117,8 +2080,8 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="9">
         <v>21</v>
       </c>
@@ -2138,33 +2101,33 @@
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="35">
         <v>22</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="35">
         <v>6</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="13">
         <v>23</v>
       </c>
@@ -2192,13 +2155,13 @@
       <c r="D25" s="12">
         <v>8</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
@@ -2209,13 +2172,13 @@
       <c r="D26" s="12">
         <v>9</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
@@ -2226,13 +2189,13 @@
       <c r="D27" s="12">
         <v>10</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
@@ -2243,19 +2206,19 @@
       <c r="D28" s="12">
         <v>11</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="5">
@@ -2277,8 +2240,8 @@
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="6">
         <v>29</v>
       </c>
@@ -2298,8 +2261,8 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="5">
         <v>30</v>
       </c>
@@ -2319,8 +2282,8 @@
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="6">
         <v>31</v>
       </c>
@@ -2340,8 +2303,8 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="5">
         <v>32</v>
       </c>
@@ -2362,17 +2325,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E12:I12"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="E26:I26"/>
@@ -2381,6 +2333,17 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2393,7 +2356,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="F20" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,38 +2374,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="21"/>
-      <c r="K1" s="66" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="18"/>
+      <c r="K1" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="N1" s="65" t="s">
+      <c r="L1" s="69"/>
+      <c r="N1" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="65"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="18"/>
       <c r="K2" s="18" t="s">
         <v>21</v>
       </c>
@@ -2482,7 +2445,7 @@
       <c r="H3" s="20">
         <v>8</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="18"/>
       <c r="K3" s="18" t="s">
         <v>94</v>
       </c>
@@ -2498,31 +2461,31 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="18"/>
       <c r="K4" s="18" t="s">
         <v>95</v>
       </c>
@@ -2538,15 +2501,15 @@
       <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="21"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="18"/>
       <c r="K5" s="18" t="s">
         <v>96</v>
       </c>
@@ -2562,7 +2525,15 @@
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="21"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="K6" s="18" t="s">
         <v>97</v>
       </c>
@@ -2602,7 +2573,7 @@
       <c r="H7" s="20">
         <v>16</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="18"/>
       <c r="K7" s="18" t="s">
         <v>98</v>
       </c>
@@ -2618,25 +2589,25 @@
       <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="62" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="18"/>
       <c r="K8" s="18" t="s">
         <v>99</v>
       </c>
@@ -2652,15 +2623,15 @@
       <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="21"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="18"/>
       <c r="K9" s="18" t="s">
         <v>100</v>
       </c>
@@ -2676,7 +2647,15 @@
       <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="21"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="K10" s="18" t="s">
         <v>101</v>
       </c>
@@ -2692,17 +2671,17 @@
       <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="21"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="18"/>
       <c r="K11" s="18" t="s">
         <v>102</v>
       </c>
@@ -2742,7 +2721,7 @@
       <c r="H12" s="20">
         <v>8</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="18"/>
       <c r="K12" s="18" t="s">
         <v>103</v>
       </c>
@@ -2758,29 +2737,29 @@
       <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="21"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="18"/>
       <c r="K13" s="18" t="s">
         <v>104</v>
       </c>
@@ -2796,15 +2775,15 @@
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="21"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="18"/>
       <c r="K14" s="18" t="s">
         <v>105</v>
       </c>
@@ -2819,16 +2798,16 @@
       </c>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="21"/>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="K15" s="18" t="s">
         <v>106</v>
       </c>
@@ -2844,7 +2823,15 @@
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="21"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="K16" s="18" t="s">
         <v>107</v>
       </c>
@@ -2860,17 +2847,17 @@
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="18"/>
       <c r="K17" s="18" t="s">
         <v>108</v>
       </c>
@@ -2886,21 +2873,21 @@
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="21"/>
-      <c r="K18" s="24" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="18"/>
+      <c r="K18" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="23" t="s">
         <v>48</v>
       </c>
       <c r="N18" s="18" t="s">
@@ -2936,38 +2923,38 @@
       <c r="H19" s="20">
         <v>8</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="K19" s="23" t="s">
+      <c r="I19" s="18"/>
+      <c r="K19" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="78" t="s">
+      <c r="F20" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="78" t="s">
+      <c r="G20" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="64"/>
-      <c r="I20" s="21"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="18"/>
       <c r="K20" s="18" t="s">
         <v>111</v>
       </c>
@@ -2976,16 +2963,16 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="21"/>
-      <c r="K21" s="23" t="s">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="18"/>
+      <c r="K21" s="22" t="s">
         <v>112</v>
       </c>
       <c r="L21" s="18" t="s">
@@ -2993,7 +2980,15 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="21"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="K22" s="18" t="s">
         <v>113</v>
       </c>
@@ -3026,8 +3021,8 @@
       <c r="H23" s="20">
         <v>16</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="K23" s="23" t="s">
+      <c r="I23" s="18"/>
+      <c r="K23" s="22" t="s">
         <v>114</v>
       </c>
       <c r="L23" s="18" t="s">
@@ -3035,25 +3030,25 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="73" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="21"/>
+      <c r="I24" s="18"/>
       <c r="K24" s="18" t="s">
         <v>115</v>
       </c>
@@ -3062,16 +3057,16 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="21"/>
-      <c r="K25" s="23" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="18"/>
+      <c r="K25" s="22" t="s">
         <v>116</v>
       </c>
       <c r="L25" s="18" t="s">
@@ -3079,7 +3074,15 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="21"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="K26" s="18" t="s">
         <v>117</v>
       </c>
@@ -3088,18 +3091,18 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3131,132 +3134,177 @@
       <c r="H28" s="20">
         <v>8</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="K28" s="67" t="s">
+      <c r="I28" s="18"/>
+      <c r="K28" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="70" t="s">
+      <c r="F29" s="60"/>
+      <c r="G29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="21"/>
+      <c r="I29" s="18"/>
       <c r="K29" s="8">
         <v>1</v>
       </c>
-      <c r="L29" s="68" t="s">
+      <c r="L29" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="21"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="18"/>
       <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="69" t="s">
+      <c r="L30" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="21"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
       <c r="K31" s="8">
         <v>3</v>
       </c>
-      <c r="L31" s="68" t="s">
+      <c r="L31" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I32" s="21"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
       <c r="K32" s="3">
         <v>4</v>
       </c>
-      <c r="L32" s="69" t="s">
+      <c r="L32" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-    </row>
-    <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="21"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
       <c r="K33" s="8">
         <v>5</v>
       </c>
-      <c r="L33" s="68" t="s">
+      <c r="L33" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-    </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I34" s="21"/>
       <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="L34" s="69" t="s">
+      <c r="L34" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -3273,40 +3321,19 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3333,260 +3360,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="J1" s="80" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="J1" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>2</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>3</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>4</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>5</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>6</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>7</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <v>8</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <v>9</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <v>10</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="25">
         <v>11</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <v>12</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <v>13</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <v>14</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <v>15</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="J5" s="80" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="J5" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>17</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>18</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>19</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>20</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>21</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>22</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>23</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>24</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>25</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>26</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>27</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <v>28</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <v>29</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="25">
         <v>30</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <v>31</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="37" t="s">
+      <c r="H7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="32" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3627,13 +3654,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3649,39 +3676,40 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FDC720-7F6F-40DC-AD66-7DFE6EAD2C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F02C60-D03F-4EED-B3FA-966742927DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
     <sheet name="Snake + PA" sheetId="2" r:id="rId2"/>
     <sheet name="Split Map" sheetId="3" r:id="rId3"/>
-    <sheet name="Document Style" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="138">
   <si>
     <t>Input</t>
   </si>
@@ -276,13 +275,7 @@
     <t>24-Channel Split</t>
   </si>
   <si>
-    <t>Guitars, Bass, and Keys Snake</t>
-  </si>
-  <si>
     <t>Jessica Acstc</t>
-  </si>
-  <si>
-    <t>Black cables = utility (PA and patching)</t>
   </si>
   <si>
     <t>Bongos</t>
@@ -436,47 +429,41 @@
     <t>Boom Mic Stand</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>Instruments</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Cyan</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Drums, Vocals</t>
-  </si>
-  <si>
-    <t>Guitar, Vocals</t>
-  </si>
-  <si>
-    <t>Keys, Guitar, Vocals</t>
-  </si>
-  <si>
-    <t>Bass, Vocals</t>
-  </si>
-  <si>
-    <t>Magenta</t>
+    <t>Light reverb. Light Delay</t>
+  </si>
+  <si>
+    <t>EQ up lower and mid. Lots of reverb.</t>
+  </si>
+  <si>
+    <t>Crowd</t>
+  </si>
+  <si>
+    <t>Crowd Left</t>
+  </si>
+  <si>
+    <t>Crowd Right</t>
+  </si>
+  <si>
+    <t>Input from left house crowd mic</t>
+  </si>
+  <si>
+    <t>Input from right house crowd mic</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Crowd mic L/R is on ports 10/11 on bottom splitter</t>
+  </si>
+  <si>
+    <t>Band &amp; IEM Snake</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,8 +649,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,12 +693,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,18 +752,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -798,12 +788,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF66FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00E266"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -820,8 +804,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -890,21 +892,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -921,11 +908,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -934,25 +945,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -962,150 +973,182 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,7 +1197,12 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1163,12 +1211,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1213,7 +1255,12 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1222,28 +1269,22 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066FF"/>
+      <color rgb="FF00E266"/>
       <color rgb="FFF2F2F2"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFE2EFDA"/>
-      <color rgb="FF00E266"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF00B050"/>
       <color rgb="FF70AD47"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF15B1FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1578,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,11 +1629,11 @@
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" customWidth="1"/>
     <col min="10" max="22" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1607,7 +1648,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>0</v>
@@ -1626,35 +1667,35 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="34">
         <v>1</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="34">
         <v>1</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -1668,39 +1709,39 @@
         <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="41">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="34">
         <v>3</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="34">
         <v>3</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="41" t="s">
+      <c r="G4" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="4">
         <v>4</v>
       </c>
@@ -1714,7 +1755,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>41</v>
@@ -1724,33 +1765,33 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="41">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="34">
         <v>5</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="34">
         <v>5</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="41" t="s">
+      <c r="G6" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="4">
         <v>6</v>
       </c>
@@ -1764,7 +1805,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>41</v>
@@ -1774,33 +1815,33 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="41">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="34">
         <v>7</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="34">
         <v>7</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="41" t="s">
+      <c r="G8" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -1814,7 +1855,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>41</v>
@@ -1824,105 +1865,105 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="41">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="34">
         <v>9</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="34">
         <v>9</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="41" t="s">
+      <c r="G10" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="41">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="34">
         <v>11</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="34">
         <v>11</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="4">
         <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>12</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="41">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="34">
         <v>13</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="34">
         <v>13</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="E14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="4">
         <v>14</v>
       </c>
@@ -1936,16 +1977,18 @@
         <v>26</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="7">
@@ -1967,31 +2010,31 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="44">
+      <c r="A17" s="42"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="37">
         <v>16</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="37">
         <v>16</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="15">
@@ -2007,14 +2050,16 @@
         <v>53</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="16">
         <v>18</v>
       </c>
@@ -2034,10 +2079,10 @@
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="61" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="9">
@@ -2053,14 +2098,16 @@
         <v>32</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="10">
         <v>20</v>
       </c>
@@ -2080,8 +2127,8 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="9">
         <v>21</v>
       </c>
@@ -2095,39 +2142,41 @@
         <v>35</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="33">
         <v>22</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>6</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
+      <c r="G23" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13">
         <v>23</v>
       </c>
@@ -2155,13 +2204,13 @@
       <c r="D25" s="12">
         <v>8</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
@@ -2172,55 +2221,63 @@
       <c r="D26" s="12">
         <v>9</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12">
+      <c r="A27" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="5">
         <v>26</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="5">
         <v>10</v>
       </c>
-      <c r="E27" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
+      <c r="E27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12">
+      <c r="A28" s="48"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="6">
         <v>27</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="6">
         <v>11</v>
       </c>
-      <c r="E28" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>37</v>
-      </c>
+      <c r="E28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="5">
         <v>28</v>
       </c>
@@ -2228,20 +2285,22 @@
         <v>12</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="6">
         <v>29</v>
       </c>
@@ -2249,20 +2308,20 @@
         <v>13</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="5">
         <v>30</v>
       </c>
@@ -2270,80 +2329,88 @@
         <v>14</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="6">
+      <c r="A32" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="7">
         <v>31</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="7">
         <v>15</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="E32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="5">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="37">
         <v>32</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="37">
         <v>16</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="E33" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="B2:B15"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2356,7 +2423,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,17 +2441,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="21"/>
       <c r="K1" s="69" t="s">
         <v>77</v>
       </c>
@@ -2395,27 +2462,27 @@
       <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="21"/>
+      <c r="K2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="39" t="s">
         <v>71</v>
       </c>
       <c r="Q2" s="17"/>
@@ -2445,81 +2512,81 @@
       <c r="H3" s="20">
         <v>8</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="K3" s="18" t="s">
+      <c r="I3" s="21"/>
+      <c r="K3" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="K4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="21"/>
+      <c r="K5" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="18" t="s">
+      <c r="L5" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="K4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="17"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="18"/>
-      <c r="K5" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="34" t="s">
         <v>62</v>
       </c>
       <c r="Q5" s="17"/>
@@ -2533,17 +2600,17 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="K6" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="18" t="s">
+      <c r="I6" s="21"/>
+      <c r="K6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="18" t="s">
+      <c r="N6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="Q6" s="17"/>
@@ -2573,126 +2640,118 @@
       <c r="H7" s="20">
         <v>16</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="K7" s="18" t="s">
+      <c r="I7" s="21"/>
+      <c r="K7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="K8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="21"/>
+      <c r="K9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="18" t="s">
+      <c r="L9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="17"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="K8" s="18" t="s">
+      <c r="O9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="21"/>
+      <c r="K10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="18" t="s">
+      <c r="L10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="17"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="18"/>
-      <c r="K9" s="18" t="s">
+      <c r="O10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="21"/>
+      <c r="K11" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="18" t="s">
+      <c r="L11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="17"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="K10" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="17"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="18"/>
-      <c r="K11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>18</v>
+      <c r="O11" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="Q11" s="17"/>
     </row>
@@ -2721,179 +2780,163 @@
       <c r="H12" s="20">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="K12" s="18" t="s">
+      <c r="I12" s="21"/>
+      <c r="K12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="67"/>
+      <c r="I13" s="21"/>
+      <c r="K13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="21"/>
+      <c r="K14" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="18" t="s">
+      <c r="L14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="17"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="18"/>
-      <c r="K13" s="18" t="s">
+      <c r="O14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="21"/>
+      <c r="K15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="18" t="s">
+      <c r="L15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="17"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="18"/>
-      <c r="K14" s="18" t="s">
+      <c r="O15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="21"/>
+      <c r="K16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="L14" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="18" t="s">
+      <c r="L16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O14" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="K15" s="18" t="s">
+      <c r="O16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="21"/>
+      <c r="K17" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="18" t="s">
+      <c r="L17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="O15" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="17"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="K16" s="18" t="s">
+      <c r="O17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="21"/>
+      <c r="K18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="18" t="s">
+      <c r="L18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="18"/>
-      <c r="K17" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="18"/>
-      <c r="K18" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="O18" s="18" t="s">
+      <c r="O18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q18" s="17"/>
@@ -2923,59 +2966,59 @@
       <c r="H19" s="20">
         <v>8</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="K19" s="22" t="s">
+      <c r="I19" s="21"/>
+      <c r="K19" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="67"/>
+      <c r="I20" s="21"/>
+      <c r="K20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="21"/>
+      <c r="K21" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="L19" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="18"/>
-      <c r="K20" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="18"/>
-      <c r="K21" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="18" t="s">
+      <c r="L21" s="34" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2988,11 +3031,11 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="K22" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="18" t="s">
+      <c r="I22" s="21"/>
+      <c r="K22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3021,87 +3064,85 @@
       <c r="H23" s="20">
         <v>16</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="K23" s="22" t="s">
+      <c r="I23" s="21"/>
+      <c r="K23" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="67"/>
+      <c r="B24" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="K24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="21"/>
+      <c r="K25" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="L23" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="18"/>
-      <c r="K24" s="18" t="s">
+      <c r="L25" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="21"/>
+      <c r="K26" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L24" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="18"/>
-      <c r="K25" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="K26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="18"/>
+      <c r="L26" s="40" t="s">
+        <v>31</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="18"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3134,7 +3175,7 @@
       <c r="H28" s="20">
         <v>8</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="21"/>
       <c r="K28" s="70" t="s">
         <v>20</v>
       </c>
@@ -3144,133 +3185,156 @@
       <c r="O28" s="70"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="64" t="s">
+      <c r="E29" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="65" t="s">
+      <c r="F29" s="67"/>
+      <c r="G29" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="18"/>
+      <c r="H29" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="21"/>
       <c r="K29" s="8">
         <v>1</v>
       </c>
-      <c r="L29" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
+      <c r="L29" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="76"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="18"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="21"/>
       <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
+      <c r="L30" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="I31" s="21"/>
       <c r="K31" s="8">
         <v>3</v>
       </c>
-      <c r="L31" s="66" t="s">
+      <c r="L31" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
+      <c r="I32" s="21"/>
       <c r="K32" s="3">
         <v>4</v>
       </c>
-      <c r="L32" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
+      <c r="L32" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+    </row>
+    <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="21"/>
       <c r="K33" s="8">
         <v>5</v>
       </c>
-      <c r="L33" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L33" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I34" s="21"/>
       <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="L34" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
+      <c r="L34" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A11:H11"/>
@@ -3287,53 +3351,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3349,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728856F4-176B-4634-AD3E-524669928A0A}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,260 +3377,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="J1" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+    </row>
+    <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23">
+        <v>3</v>
+      </c>
+      <c r="D2" s="23">
+        <v>4</v>
+      </c>
+      <c r="E2" s="23">
+        <v>5</v>
+      </c>
+      <c r="F2" s="23">
+        <v>6</v>
+      </c>
+      <c r="G2" s="23">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23">
+        <v>8</v>
+      </c>
+      <c r="J2" s="23">
+        <v>9</v>
+      </c>
+      <c r="K2" s="23">
+        <v>10</v>
+      </c>
+      <c r="L2" s="23">
+        <v>11</v>
+      </c>
+      <c r="M2" s="23">
+        <v>12</v>
+      </c>
+      <c r="N2" s="23">
+        <v>13</v>
+      </c>
+      <c r="O2" s="23">
+        <v>14</v>
+      </c>
+      <c r="P2" s="23">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="J5" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>17</v>
+      </c>
+      <c r="B6" s="23">
+        <v>18</v>
+      </c>
+      <c r="C6" s="23">
+        <v>19</v>
+      </c>
+      <c r="D6" s="23">
+        <v>20</v>
+      </c>
+      <c r="E6" s="23">
+        <v>21</v>
+      </c>
+      <c r="F6" s="23">
+        <v>22</v>
+      </c>
+      <c r="G6" s="23">
+        <v>23</v>
+      </c>
+      <c r="H6" s="23">
+        <v>24</v>
+      </c>
+      <c r="J6" s="23">
+        <v>25</v>
+      </c>
+      <c r="K6" s="23">
+        <v>26</v>
+      </c>
+      <c r="L6" s="23">
+        <v>27</v>
+      </c>
+      <c r="M6" s="23">
+        <v>28</v>
+      </c>
+      <c r="N6" s="23">
+        <v>29</v>
+      </c>
+      <c r="O6" s="23">
+        <v>30</v>
+      </c>
+      <c r="P6" s="23">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="J1" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-    </row>
-    <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25">
-        <v>2</v>
-      </c>
-      <c r="C2" s="25">
-        <v>3</v>
-      </c>
-      <c r="D2" s="25">
-        <v>4</v>
-      </c>
-      <c r="E2" s="25">
-        <v>5</v>
-      </c>
-      <c r="F2" s="25">
-        <v>6</v>
-      </c>
-      <c r="G2" s="25">
-        <v>7</v>
-      </c>
-      <c r="H2" s="25">
-        <v>8</v>
-      </c>
-      <c r="J2" s="25">
-        <v>9</v>
-      </c>
-      <c r="K2" s="25">
-        <v>10</v>
-      </c>
-      <c r="L2" s="25">
-        <v>11</v>
-      </c>
-      <c r="M2" s="25">
-        <v>12</v>
-      </c>
-      <c r="N2" s="25">
-        <v>13</v>
-      </c>
-      <c r="O2" s="25">
-        <v>14</v>
-      </c>
-      <c r="P2" s="25">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="L7" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="J5" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-    </row>
-    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>17</v>
-      </c>
-      <c r="B6" s="25">
-        <v>18</v>
-      </c>
-      <c r="C6" s="25">
-        <v>19</v>
-      </c>
-      <c r="D6" s="25">
-        <v>20</v>
-      </c>
-      <c r="E6" s="25">
-        <v>21</v>
-      </c>
-      <c r="F6" s="25">
-        <v>22</v>
-      </c>
-      <c r="G6" s="25">
-        <v>23</v>
-      </c>
-      <c r="H6" s="25">
-        <v>24</v>
-      </c>
-      <c r="J6" s="25">
-        <v>25</v>
-      </c>
-      <c r="K6" s="25">
-        <v>26</v>
-      </c>
-      <c r="L6" s="25">
-        <v>27</v>
-      </c>
-      <c r="M6" s="25">
-        <v>28</v>
-      </c>
-      <c r="N6" s="25">
-        <v>29</v>
-      </c>
-      <c r="O6" s="25">
-        <v>30</v>
-      </c>
-      <c r="P6" s="25">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="30" t="s">
+      <c r="O7" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="32" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3627,89 +3648,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0FC92A-968B-4411-B6B8-D166D6F99331}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C8A26F-4E6B-401F-817A-0B745B8A770D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A11A77-ADA3-4508-98A0-5E83AB846404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="137">
   <si>
     <t>Input</t>
   </si>
@@ -463,6 +463,15 @@
   <si>
     <t>BT 
 Right</t>
+  </si>
+  <si>
+    <t>Paul Mndln</t>
+  </si>
+  <si>
+    <t>CAD CM217</t>
+  </si>
+  <si>
+    <t>Mic stand boom</t>
   </si>
 </sst>
 </file>
@@ -867,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,22 +910,68 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -927,122 +982,86 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1577,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,32 +1615,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="e" vm="1">
+      <c r="A1" s="23" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1653,10 +1672,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="22">
@@ -1680,8 +1699,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1701,8 +1720,8 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="22">
         <v>3</v>
       </c>
@@ -1726,8 +1745,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -1751,8 +1770,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="22">
         <v>5</v>
       </c>
@@ -1776,8 +1795,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -1801,8 +1820,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="22">
         <v>7</v>
       </c>
@@ -1826,8 +1845,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="2">
         <v>8</v>
       </c>
@@ -1851,8 +1870,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="22">
         <v>9</v>
       </c>
@@ -1876,59 +1895,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="22">
         <v>11</v>
       </c>
       <c r="D14" s="22">
         <v>11</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="2">
         <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>12</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="22">
         <v>13</v>
       </c>
@@ -1948,8 +1967,8 @@
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="2">
         <v>14</v>
       </c>
@@ -1971,10 +1990,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="5">
@@ -1996,8 +2015,8 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="18">
         <v>16</v>
       </c>
@@ -2017,10 +2036,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="10">
@@ -2044,8 +2063,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="11">
         <v>18</v>
       </c>
@@ -2065,10 +2084,10 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="20">
@@ -2092,8 +2111,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="21">
         <v>20</v>
       </c>
@@ -2113,8 +2132,8 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="20">
         <v>21</v>
       </c>
@@ -2134,10 +2153,10 @@
       <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="71" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="17">
@@ -2161,8 +2180,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="8">
         <v>23</v>
       </c>
@@ -2182,21 +2201,29 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7">
+      <c r="A27" s="70"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="17">
         <v>24</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="17">
         <v>8</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="E27" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -2207,19 +2234,19 @@
       <c r="D28" s="7">
         <v>9</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="3">
@@ -2241,8 +2268,8 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="4">
         <v>27</v>
       </c>
@@ -2262,8 +2289,8 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="3">
         <v>28</v>
       </c>
@@ -2285,8 +2312,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="4">
         <v>29</v>
       </c>
@@ -2306,8 +2333,8 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="3">
         <v>30</v>
       </c>
@@ -2327,10 +2354,10 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="39" t="s">
         <v>123</v>
       </c>
       <c r="C34" s="5">
@@ -2354,8 +2381,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="18">
         <v>32</v>
       </c>
@@ -2377,7 +2404,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="C1:F2"/>
@@ -2386,20 +2426,6 @@
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2411,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036672A4-8952-44C6-9E0D-0D4906E8D835}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,77 +2456,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="e" vm="1">
+      <c r="A1" s="23" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="16"/>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="N3" s="62" t="s">
+      <c r="L3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="62"/>
+      <c r="O3" s="53"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="16"/>
       <c r="K4" s="19" t="s">
         <v>21</v>
@@ -2557,28 +2583,28 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="66" t="s">
         <v>63</v>
       </c>
       <c r="I6" s="16"/>
@@ -2597,14 +2623,14 @@
       <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="48"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="16"/>
       <c r="K7" s="22" t="s">
         <v>93</v>
@@ -2685,22 +2711,22 @@
       <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="46" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="61" t="s">
         <v>133</v>
       </c>
       <c r="I10" s="16"/>
@@ -2719,14 +2745,14 @@
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="16"/>
       <c r="K11" s="20" t="s">
         <v>97</v>
@@ -2759,16 +2785,16 @@
       <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="16"/>
       <c r="K13" s="20" t="s">
         <v>99</v>
@@ -2825,28 +2851,30 @@
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="50"/>
+      <c r="H15" s="62" t="s">
+        <v>134</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="K15" s="8" t="s">
         <v>101</v>
@@ -2863,14 +2891,14 @@
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="50"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="16"/>
       <c r="K16" s="3" t="s">
         <v>102</v>
@@ -2919,16 +2947,16 @@
       <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="16"/>
       <c r="K19" s="4" t="s">
         <v>105</v>
@@ -2945,16 +2973,16 @@
       <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="16"/>
       <c r="K20" s="3" t="s">
         <v>106</v>
@@ -3002,34 +3030,36 @@
       <c r="L21" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="51" t="s">
+      <c r="N21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="51"/>
+      <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="50"/>
+      <c r="H22" s="62" t="s">
+        <v>134</v>
+      </c>
       <c r="I22" s="16"/>
       <c r="K22" s="2" t="s">
         <v>108</v>
@@ -3037,20 +3067,20 @@
       <c r="L22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="52" t="s">
+      <c r="N22" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="O22" s="52"/>
+      <c r="O22" s="48"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="50"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="16"/>
       <c r="K23" s="22" t="s">
         <v>109</v>
@@ -3058,8 +3088,8 @@
       <c r="L23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
@@ -3077,10 +3107,10 @@
       <c r="L24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="64" t="s">
+      <c r="N24" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="O24" s="64"/>
+      <c r="O24" s="47"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
@@ -3114,30 +3144,30 @@
       <c r="L25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="60" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="61" t="s">
         <v>125</v>
       </c>
       <c r="I26" s="16"/>
@@ -3147,20 +3177,20 @@
       <c r="L26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="52" t="s">
+      <c r="N26" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="O26" s="52"/>
+      <c r="O26" s="48"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="16"/>
       <c r="K27" s="22" t="s">
         <v>113</v>
@@ -3168,37 +3198,37 @@
       <c r="L27" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="16"/>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L28" s="24" t="s">
-        <v>31</v>
+      <c r="L28" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="65" t="s">
+      <c r="N28" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="O28" s="65"/>
+      <c r="O28" s="49"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="16"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
@@ -3226,107 +3256,62 @@
         <v>8</v>
       </c>
       <c r="I30" s="16"/>
-      <c r="N30" s="66" t="s">
+      <c r="N30" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="O30" s="66"/>
+      <c r="O30" s="50"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="54" t="s">
+      <c r="F31" s="51"/>
+      <c r="G31" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="54" t="s">
+      <c r="H31" s="63" t="s">
         <v>80</v>
       </c>
       <c r="I31" s="16"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
       <c r="I32" s="16"/>
-      <c r="N32" s="64" t="s">
+      <c r="N32" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="O32" s="64"/>
+      <c r="O32" s="47"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="16"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
     </row>
     <row r="34" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="N24:O25"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="N32:O33"/>
-    <mergeCell ref="K1:O2"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O23"/>
     <mergeCell ref="G10:G11"/>
@@ -3343,11 +3328,56 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:J2"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="N24:O25"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="N32:O33"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A11A77-ADA3-4508-98A0-5E83AB846404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA93C6B-5A13-44EC-918E-9FB81440EC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="145">
   <si>
     <t>Input</t>
   </si>
@@ -169,30 +169,15 @@
     <t>Direct</t>
   </si>
   <si>
-    <t>Bass</t>
-  </si>
-  <si>
-    <t>Keys</t>
-  </si>
-  <si>
     <t>Telefunken M80</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Bluetooth</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>Guitar Left</t>
-  </si>
-  <si>
-    <t>Guitar Right</t>
-  </si>
-  <si>
     <t>Shure 55SH</t>
   </si>
   <si>
@@ -227,18 +212,6 @@
   </si>
   <si>
     <t>Chad</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Kenzi</t>
   </si>
   <si>
     <t>Overhead Hat</t>
@@ -296,9 +269,6 @@
     <t>Jessica Acstc</t>
   </si>
   <si>
-    <t>Bongos</t>
-  </si>
-  <si>
     <t>Shure SM57</t>
   </si>
   <si>
@@ -414,9 +384,6 @@
   </si>
   <si>
     <t>Drum Clamp</t>
-  </si>
-  <si>
-    <t>Bongo Stand</t>
   </si>
   <si>
     <t>Hanging Mic Stand</t>
@@ -465,20 +432,81 @@
 Right</t>
   </si>
   <si>
-    <t>Paul Mndln</t>
-  </si>
-  <si>
-    <t>CAD CM217</t>
-  </si>
-  <si>
-    <t>Mic stand boom</t>
+    <t>SR Vocals</t>
+  </si>
+  <si>
+    <t>SR Aux</t>
+  </si>
+  <si>
+    <t>SR Bass</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>John
+Bass</t>
+  </si>
+  <si>
+    <t>Jessica
+Guitar</t>
+  </si>
+  <si>
+    <t>Paul
+Guitar</t>
+  </si>
+  <si>
+    <t>Kenzi
+Keys</t>
+  </si>
+  <si>
+    <t>Stage Right</t>
+  </si>
+  <si>
+    <t>Stage Left</t>
+  </si>
+  <si>
+    <t>CSR Vocals</t>
+  </si>
+  <si>
+    <t>CSR Acoustic</t>
+  </si>
+  <si>
+    <t>CSL Vocals</t>
+  </si>
+  <si>
+    <t>CSL Electric</t>
+  </si>
+  <si>
+    <t>SL Electric</t>
+  </si>
+  <si>
+    <t>SL Acoustic</t>
+  </si>
+  <si>
+    <t>SL Vocals</t>
+  </si>
+  <si>
+    <t>SL Piano</t>
+  </si>
+  <si>
+    <t>Drum Vocals</t>
+  </si>
+  <si>
+    <t>SL Keys</t>
+  </si>
+  <si>
+    <t>Center Stage Right</t>
+  </si>
+  <si>
+    <t>Center Stage Left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,14 +540,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -572,14 +592,6 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -587,31 +599,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -657,16 +645,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -876,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,32 +884,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -922,145 +930,136 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1068,6 +1067,61 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00E266"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00E266"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1124,47 +1178,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1279,19 +1292,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}" name="Table2" displayName="Table2" ref="N4:O20" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="N4:O20" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{49BF8DF2-5386-41E7-B011-F853E4FE75C2}" name="Channel" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{85FAB182-B344-4EA5-B466-95EC3E4BC71D}" name="Name" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{49BF8DF2-5386-41E7-B011-F853E4FE75C2}" name="Channel" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{85FAB182-B344-4EA5-B466-95EC3E4BC71D}" name="Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}" name="Table3" displayName="Table3" ref="K4:L28" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}" name="Table3" displayName="Table3" ref="K4:L28" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="K4:L28" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B9139E83-F123-47D5-9BE7-0B1EAD9E7473}" name="Channel" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{27CB3066-5421-4E5F-89F2-CBCCA63E2B40}" name="Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B9139E83-F123-47D5-9BE7-0B1EAD9E7473}" name="Channel" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{27CB3066-5421-4E5F-89F2-CBCCA63E2B40}" name="Name" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1596,14 +1609,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -1615,92 +1628,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="e" vm="1">
+      <c r="A1" s="27" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
-        <v>51</v>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1714,39 +1727,39 @@
         <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="22">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="21">
         <v>3</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>3</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>74</v>
+      <c r="G6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -1760,43 +1773,43 @@
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="22">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="21">
         <v>5</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>5</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>74</v>
+      <c r="G8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -1810,43 +1823,43 @@
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="22">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="21">
         <v>7</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>7</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>74</v>
+      <c r="G10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="2">
         <v>8</v>
       </c>
@@ -1854,121 +1867,117 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="22">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="21">
         <v>9</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>9</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>74</v>
+      <c r="G12" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="22">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="21">
         <v>11</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>11</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="2">
         <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>12</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="22">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="21">
         <v>13</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>13</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="E16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="2">
         <v>14</v>
       </c>
@@ -1982,19 +1991,19 @@
         <v>26</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>40</v>
+      <c r="A18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="5">
         <v>15</v>
@@ -2003,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>35</v>
@@ -2015,173 +2024,173 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="18">
+      <c r="A19" s="22"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="17">
         <v>16</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>16</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="19">
+        <v>17</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="20">
+        <v>18</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="19">
+        <v>19</v>
+      </c>
+      <c r="D22" s="19">
+        <v>3</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="10">
+        <v>20</v>
+      </c>
+      <c r="D23" s="10">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="11">
+        <v>21</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="10">
-        <v>17</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="G24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="16">
+        <v>22</v>
+      </c>
+      <c r="D25" s="16">
+        <v>6</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="11">
-        <v>18</v>
-      </c>
-      <c r="D21" s="11">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="20">
-        <v>19</v>
-      </c>
-      <c r="D22" s="20">
-        <v>3</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="21">
-        <v>20</v>
-      </c>
-      <c r="D23" s="21">
-        <v>4</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="20">
-        <v>21</v>
-      </c>
-      <c r="D24" s="20">
-        <v>5</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="17">
-        <v>22</v>
-      </c>
-      <c r="D25" s="17">
-        <v>6</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17" t="s">
-        <v>121</v>
+      <c r="F25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="8">
         <v>23</v>
       </c>
@@ -2192,38 +2201,30 @@
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="17">
+      <c r="A27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7">
         <v>24</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="7">
         <v>8</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="E27" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -2234,20 +2235,20 @@
       <c r="D28" s="7">
         <v>9</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>37</v>
+      <c r="A29" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>132</v>
       </c>
       <c r="C29" s="3">
         <v>26</v>
@@ -2256,20 +2257,20 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="4">
         <v>27</v>
       </c>
@@ -2277,20 +2278,20 @@
         <v>11</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="3">
         <v>28</v>
       </c>
@@ -2301,19 +2302,19 @@
         <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="4">
         <v>29</v>
       </c>
@@ -2324,17 +2325,17 @@
         <v>4</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="3">
         <v>30</v>
       </c>
@@ -2342,23 +2343,23 @@
         <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>123</v>
+      <c r="A34" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="C34" s="5">
         <v>31</v>
@@ -2367,67 +2368,69 @@
         <v>15</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="18">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="17">
         <v>32</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17">
         <v>16</v>
       </c>
-      <c r="E35" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18" t="s">
-        <v>127</v>
+      <c r="E35" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A18:A19"/>
+  <mergeCells count="23">
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="B4:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="C1:F2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="597" r:id="rId1"/>
 </worksheet>
@@ -2437,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036672A4-8952-44C6-9E0D-0D4906E8D835}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,863 +2458,888 @@
     <col min="19" max="19" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="e" vm="1">
+    <row r="1" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="15"/>
+      <c r="K3" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="53"/>
+      <c r="N3" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="52"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="15"/>
+      <c r="K4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5</v>
+      </c>
+      <c r="F5" s="14">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14">
+        <v>7</v>
+      </c>
+      <c r="H5" s="14">
+        <v>8</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="K5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="K6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="15"/>
+      <c r="K7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="15"/>
+      <c r="K8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14">
+        <v>11</v>
+      </c>
+      <c r="D9" s="14">
+        <v>12</v>
+      </c>
+      <c r="E9" s="14">
+        <v>13</v>
+      </c>
+      <c r="F9" s="14">
+        <v>14</v>
+      </c>
+      <c r="G9" s="14">
+        <v>15</v>
+      </c>
+      <c r="H9" s="14">
+        <v>16</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="K9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="K10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="15"/>
+      <c r="K12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="14">
+        <v>6</v>
+      </c>
+      <c r="G14" s="14">
+        <v>7</v>
+      </c>
+      <c r="H14" s="14">
+        <v>8</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="K14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="15"/>
+      <c r="K17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="15"/>
+      <c r="K18" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>1</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3</v>
+      </c>
+      <c r="D21" s="14">
+        <v>4</v>
+      </c>
+      <c r="E21" s="14">
+        <v>5</v>
+      </c>
+      <c r="F21" s="14">
+        <v>6</v>
+      </c>
+      <c r="G21" s="14">
+        <v>7</v>
+      </c>
+      <c r="H21" s="14">
+        <v>8</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="K21" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="36"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="15"/>
+      <c r="K22" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="16"/>
-      <c r="K3" s="54" t="s">
+      <c r="O22" s="37"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="15"/>
+      <c r="K23" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="15"/>
+      <c r="K24" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" s="54"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>9</v>
+      </c>
+      <c r="B25" s="14">
+        <v>10</v>
+      </c>
+      <c r="C25" s="14">
+        <v>11</v>
+      </c>
+      <c r="D25" s="14">
+        <v>12</v>
+      </c>
+      <c r="E25" s="14">
+        <v>13</v>
+      </c>
+      <c r="F25" s="14">
+        <v>14</v>
+      </c>
+      <c r="G25" s="14">
+        <v>15</v>
+      </c>
+      <c r="H25" s="14">
+        <v>16</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="K25" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
+      <c r="B26" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="K26" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" s="37"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="15"/>
+      <c r="K27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="15"/>
+      <c r="K28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="55"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="15"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>1</v>
+      </c>
+      <c r="B30" s="14">
+        <v>2</v>
+      </c>
+      <c r="C30" s="14">
+        <v>3</v>
+      </c>
+      <c r="D30" s="14">
+        <v>4</v>
+      </c>
+      <c r="E30" s="14">
+        <v>5</v>
+      </c>
+      <c r="F30" s="14">
+        <v>6</v>
+      </c>
+      <c r="G30" s="14">
+        <v>7</v>
+      </c>
+      <c r="H30" s="14">
+        <v>8</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="N30" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" s="56"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="N3" s="53" t="s">
+      <c r="B31" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="53"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="16"/>
-      <c r="K4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="E31" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15">
-        <v>2</v>
-      </c>
-      <c r="C5" s="15">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15">
-        <v>4</v>
-      </c>
-      <c r="E5" s="15">
-        <v>5</v>
-      </c>
-      <c r="F5" s="15">
-        <v>6</v>
-      </c>
-      <c r="G5" s="15">
-        <v>7</v>
-      </c>
-      <c r="H5" s="15">
-        <v>8</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="K5" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="K6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="16"/>
-      <c r="K7" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="12"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="16"/>
-      <c r="K8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>9</v>
-      </c>
-      <c r="B9" s="15">
-        <v>10</v>
-      </c>
-      <c r="C9" s="15">
-        <v>11</v>
-      </c>
-      <c r="D9" s="15">
-        <v>12</v>
-      </c>
-      <c r="E9" s="15">
-        <v>13</v>
-      </c>
-      <c r="F9" s="15">
-        <v>14</v>
-      </c>
-      <c r="G9" s="15">
-        <v>15</v>
-      </c>
-      <c r="H9" s="15">
-        <v>16</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="K9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="K10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="16"/>
-      <c r="K11" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="16"/>
-      <c r="K12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="16"/>
-      <c r="K13" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>1</v>
-      </c>
-      <c r="B14" s="15">
-        <v>2</v>
-      </c>
-      <c r="C14" s="15">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15">
-        <v>4</v>
-      </c>
-      <c r="E14" s="15">
-        <v>5</v>
-      </c>
-      <c r="F14" s="15">
-        <v>6</v>
-      </c>
-      <c r="G14" s="15">
-        <v>7</v>
-      </c>
-      <c r="H14" s="15">
-        <v>8</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="K14" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="K15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="16"/>
-      <c r="K16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="16"/>
-      <c r="K17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="16"/>
-      <c r="K18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="16"/>
-      <c r="K19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="16"/>
-      <c r="K20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>1</v>
-      </c>
-      <c r="B21" s="15">
-        <v>2</v>
-      </c>
-      <c r="C21" s="15">
-        <v>3</v>
-      </c>
-      <c r="D21" s="15">
-        <v>4</v>
-      </c>
-      <c r="E21" s="15">
-        <v>5</v>
-      </c>
-      <c r="F21" s="15">
-        <v>6</v>
-      </c>
-      <c r="G21" s="15">
-        <v>7</v>
-      </c>
-      <c r="H21" s="15">
-        <v>8</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="K21" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="65"/>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="K22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="O22" s="48"/>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="16"/>
-      <c r="K23" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="16"/>
-      <c r="K24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="O24" s="47"/>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>9</v>
-      </c>
-      <c r="B25" s="15">
-        <v>10</v>
-      </c>
-      <c r="C25" s="15">
-        <v>11</v>
-      </c>
-      <c r="D25" s="15">
-        <v>12</v>
-      </c>
-      <c r="E25" s="15">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15">
-        <v>14</v>
-      </c>
-      <c r="G25" s="15">
-        <v>15</v>
-      </c>
-      <c r="H25" s="15">
-        <v>16</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="K25" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="K26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="O26" s="48"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="16"/>
-      <c r="K27" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="16"/>
-      <c r="K28" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="O28" s="49"/>
-    </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="16"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-    </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>1</v>
-      </c>
-      <c r="B30" s="15">
-        <v>2</v>
-      </c>
-      <c r="C30" s="15">
-        <v>3</v>
-      </c>
-      <c r="D30" s="15">
-        <v>4</v>
-      </c>
-      <c r="E30" s="15">
-        <v>5</v>
-      </c>
-      <c r="F30" s="15">
-        <v>6</v>
-      </c>
-      <c r="G30" s="15">
-        <v>7</v>
-      </c>
-      <c r="H30" s="15">
-        <v>8</v>
-      </c>
-      <c r="I30" s="16"/>
-      <c r="N30" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="O30" s="50"/>
-    </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="63" t="s">
+      <c r="I31" s="15"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="15"/>
+      <c r="N32" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="16"/>
-      <c r="N32" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="O32" s="47"/>
+      <c r="O32" s="54"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="16"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
+      <c r="I33" s="15"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
     </row>
     <row r="34" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="N24:O25"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="N32:O33"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O23"/>
     <mergeCell ref="G10:G11"/>
@@ -3328,58 +3356,8 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="K1:O2"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="N24:O25"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="N32:O33"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="2">

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA93C6B-5A13-44EC-918E-9FB81440EC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E5E60-DBF8-4AB7-AE74-5BF538086772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
   <si>
     <t>Input</t>
   </si>
@@ -425,9 +425,6 @@
     <t>www.theperfectstrangers.band</t>
   </si>
   <si>
-    <t>Full Band Setup</t>
-  </si>
-  <si>
     <t>BT 
 Right</t>
   </si>
@@ -500,6 +497,15 @@
   </si>
   <si>
     <t>Center Stage Left</t>
+  </si>
+  <si>
+    <t>SR Drum Overhd</t>
+  </si>
+  <si>
+    <t>SL Drum Overhd</t>
+  </si>
+  <si>
+    <t>Full Band Setup 3.0</t>
   </si>
 </sst>
 </file>
@@ -554,14 +560,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -662,6 +660,14 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -872,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,12 +892,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,25 +908,43 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -930,61 +953,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,76 +1034,117 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1078,7 +1154,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1091,12 +1167,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1105,7 +1180,7 @@
           <bgColor rgb="FF00E266"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1118,49 +1193,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1289,22 +1321,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}" name="Table2" displayName="Table2" ref="N4:O20" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}" name="Table2" displayName="Table2" ref="N4:O20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="3">
   <autoFilter ref="N4:O20" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{49BF8DF2-5386-41E7-B011-F853E4FE75C2}" name="Channel" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{85FAB182-B344-4EA5-B466-95EC3E4BC71D}" name="Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{49BF8DF2-5386-41E7-B011-F853E4FE75C2}" name="Channel" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{85FAB182-B344-4EA5-B466-95EC3E4BC71D}" name="Name" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}" name="Table3" displayName="Table3" ref="K4:L28" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}" name="Table3" displayName="Table3" ref="K4:L28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
   <autoFilter ref="K4:L28" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B9139E83-F123-47D5-9BE7-0B1EAD9E7473}" name="Channel" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{27CB3066-5421-4E5F-89F2-CBCCA63E2B40}" name="Name" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B9139E83-F123-47D5-9BE7-0B1EAD9E7473}" name="Channel" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{27CB3066-5421-4E5F-89F2-CBCCA63E2B40}" name="Name" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1609,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,92 +1660,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="e" vm="1">
+      <c r="A1" s="32" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="29" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
-        <v>46</v>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1721,45 +1753,43 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="20">
+        <v>3</v>
+      </c>
+      <c r="D6" s="20">
+        <v>3</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="21">
-        <v>3</v>
-      </c>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>65</v>
-      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -1767,10 +1797,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>107</v>
@@ -1783,33 +1813,33 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="21">
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="20">
         <v>5</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>5</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -1817,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>27</v>
@@ -1833,33 +1863,33 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="21">
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="20">
         <v>7</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>7</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="2">
         <v>8</v>
       </c>
@@ -1867,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>38</v>
@@ -1883,126 +1913,128 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="21">
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="20">
         <v>9</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>9</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <v>11</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="21">
-        <v>11</v>
-      </c>
-      <c r="D14" s="21">
-        <v>11</v>
-      </c>
-      <c r="E14" s="35" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="2">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2">
-        <v>12</v>
-      </c>
-      <c r="E15" s="34" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="21">
-        <v>13</v>
-      </c>
-      <c r="D16" s="21">
-        <v>13</v>
-      </c>
-      <c r="E16" s="35" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="7">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
+        <v>14</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="2">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="5">
@@ -2025,100 +2057,100 @@
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="17">
+      <c r="B19" s="31"/>
+      <c r="C19" s="16">
         <v>16</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>16</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="18">
+        <v>17</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="19">
+        <v>18</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="18">
+        <v>19</v>
+      </c>
+      <c r="D22" s="18">
+        <v>3</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="19">
-        <v>17</v>
-      </c>
-      <c r="D20" s="19">
-        <v>1</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="20">
-        <v>18</v>
-      </c>
-      <c r="D21" s="20">
-        <v>2</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="19">
-        <v>19</v>
-      </c>
-      <c r="D22" s="19">
-        <v>3</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>143</v>
+      <c r="B23" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="C23" s="10">
         <v>20</v>
@@ -2141,8 +2173,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="11">
         <v>21</v>
       </c>
@@ -2162,35 +2194,35 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="16">
+      <c r="A25" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="15">
         <v>22</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <v>6</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16" t="s">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="69"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="8">
         <v>23</v>
       </c>
@@ -2244,11 +2276,11 @@
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>132</v>
+      <c r="A29" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="C29" s="3">
         <v>26</v>
@@ -2257,20 +2289,22 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="4">
         <v>27</v>
       </c>
@@ -2278,20 +2312,20 @@
         <v>11</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="3">
         <v>28</v>
       </c>
@@ -2299,22 +2333,20 @@
         <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="4">
         <v>29</v>
       </c>
@@ -2322,20 +2354,20 @@
         <v>13</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="72"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="3">
         <v>30</v>
       </c>
@@ -2343,13 +2375,13 @@
         <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2384,23 +2416,23 @@
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="17">
+      <c r="C35" s="16">
         <v>32</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="16">
         <v>16</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17" t="s">
+      <c r="H35" s="16"/>
+      <c r="I35" s="16" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2413,17 +2445,17 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="B4:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="C1:F2"/>
-    <mergeCell ref="E13:I13"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="E17:I17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="E28:I28"/>
@@ -2440,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036672A4-8952-44C6-9E0D-0D4906E8D835}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B32"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,728 +2491,783 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="e" vm="1">
+      <c r="A1" s="32" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+    </row>
+    <row r="2" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="14"/>
+      <c r="K3" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="62"/>
+      <c r="N3" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="14"/>
+      <c r="K4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13">
+        <v>8</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="K5" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="70"/>
+      <c r="N5" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="K6" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="70"/>
+      <c r="N6" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="14"/>
+      <c r="K7" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="70"/>
+      <c r="N7" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="14"/>
+      <c r="K8" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="N8" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13">
+        <v>11</v>
+      </c>
+      <c r="D9" s="13">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13">
+        <v>13</v>
+      </c>
+      <c r="F9" s="13">
+        <v>14</v>
+      </c>
+      <c r="G9" s="13">
+        <v>15</v>
+      </c>
+      <c r="H9" s="13">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="K9" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" s="70"/>
+      <c r="N9" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-    </row>
-    <row r="2" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="15"/>
-      <c r="K3" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="53"/>
-      <c r="N3" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="52"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="I10" s="14"/>
+      <c r="K10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="70"/>
+      <c r="N10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="14"/>
+      <c r="K11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" s="70"/>
+      <c r="N11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="14"/>
+      <c r="K12" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="70"/>
+      <c r="N12" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="66"/>
+      <c r="K13" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" s="70"/>
+      <c r="N13" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13">
+        <v>4</v>
+      </c>
+      <c r="E14" s="13">
+        <v>5</v>
+      </c>
+      <c r="F14" s="13">
+        <v>6</v>
+      </c>
+      <c r="G14" s="13">
+        <v>7</v>
+      </c>
+      <c r="H14" s="13">
+        <v>8</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="K14" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="70"/>
+      <c r="N14" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="14"/>
+      <c r="K15" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="70"/>
+      <c r="N15" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" s="83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="14"/>
+      <c r="K16" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="70"/>
+      <c r="N16" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="14"/>
+      <c r="K17" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="70"/>
+      <c r="N17" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="14"/>
+      <c r="K18" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="70"/>
+      <c r="N18" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="14"/>
+      <c r="K19" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="70"/>
+      <c r="N19" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="15"/>
-      <c r="K4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="14"/>
+      <c r="K20" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="70"/>
+      <c r="N20" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B21" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D21" s="13">
         <v>4</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E21" s="13">
         <v>5</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F21" s="13">
         <v>6</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G21" s="13">
         <v>7</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H21" s="13">
         <v>8</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="K5" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="39" t="s">
+      <c r="I21" s="14"/>
+      <c r="K21" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21" s="70"/>
+      <c r="N21" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="54"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="68"/>
+      <c r="I22" s="14"/>
+      <c r="K22" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="K6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="15"/>
-      <c r="K7" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="15"/>
-      <c r="K8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>9</v>
-      </c>
-      <c r="B9" s="14">
-        <v>10</v>
-      </c>
-      <c r="C9" s="14">
-        <v>11</v>
-      </c>
-      <c r="D9" s="14">
-        <v>12</v>
-      </c>
-      <c r="E9" s="14">
-        <v>13</v>
-      </c>
-      <c r="F9" s="14">
-        <v>14</v>
-      </c>
-      <c r="G9" s="14">
-        <v>15</v>
-      </c>
-      <c r="H9" s="14">
-        <v>16</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="K9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="K10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="15"/>
-      <c r="K12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="15"/>
-      <c r="K13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="14">
-        <v>3</v>
-      </c>
-      <c r="D14" s="14">
-        <v>4</v>
-      </c>
-      <c r="E14" s="14">
-        <v>5</v>
-      </c>
-      <c r="F14" s="14">
-        <v>6</v>
-      </c>
-      <c r="G14" s="14">
-        <v>7</v>
-      </c>
-      <c r="H14" s="14">
-        <v>8</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="K14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="15"/>
-      <c r="K16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="15"/>
-      <c r="K17" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="15"/>
-      <c r="K18" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="15"/>
-      <c r="K19" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>1</v>
-      </c>
-      <c r="B21" s="14">
-        <v>2</v>
-      </c>
-      <c r="C21" s="14">
-        <v>3</v>
-      </c>
-      <c r="D21" s="14">
-        <v>4</v>
-      </c>
-      <c r="E21" s="14">
-        <v>5</v>
-      </c>
-      <c r="F21" s="14">
-        <v>6</v>
-      </c>
-      <c r="G21" s="14">
-        <v>7</v>
-      </c>
-      <c r="H21" s="14">
-        <v>8</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="K21" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="N21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="36"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="15"/>
-      <c r="K22" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="37" t="s">
+      <c r="M22" s="70"/>
+      <c r="N22" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="O22" s="37"/>
+      <c r="O22" s="84"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="15"/>
-      <c r="K23" s="21" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="14"/>
+      <c r="K23" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="15"/>
-      <c r="K24" s="21" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="14"/>
+      <c r="K24" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="54" t="s">
+      <c r="M24" s="70"/>
+      <c r="N24" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="O24" s="54"/>
+      <c r="O24" s="85"/>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>9</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>10</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>11</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>12</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>13</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <v>14</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>15</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>16</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="K25" s="21" t="s">
+      <c r="I25" s="14"/>
+      <c r="K25" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="75"/>
+      <c r="B26" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="F26" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="K26" s="21" t="s">
+      <c r="I26" s="14"/>
+      <c r="K26" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="M26" s="70"/>
+      <c r="N26" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="37"/>
+      <c r="O26" s="84"/>
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="15"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="14"/>
       <c r="K27" s="7" t="s">
         <v>103</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="15"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="14"/>
       <c r="K28" s="7" t="s">
         <v>104</v>
       </c>
@@ -3188,103 +3275,118 @@
         <v>31</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="55" t="s">
+      <c r="N28" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="O28" s="55"/>
+      <c r="O28" s="63"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="15"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="14"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>3</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>4</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>5</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <v>6</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>7</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>8</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="N30" s="56" t="s">
+      <c r="I30" s="14"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="O30" s="56"/>
+      <c r="O30" s="64"/>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="43" t="s">
+      <c r="F31" s="68"/>
+      <c r="G31" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
+      <c r="I31" s="14"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="15"/>
-      <c r="N32" s="54" t="s">
+      <c r="A32" s="56"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="14"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="O32" s="54"/>
+      <c r="O32" s="85"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="15"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
+      <c r="I33" s="14"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
     </row>
     <row r="34" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A11A77-ADA3-4508-98A0-5E83AB846404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E5E60-DBF8-4AB7-AE74-5BF538086772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
   <si>
     <t>Input</t>
   </si>
@@ -169,30 +169,15 @@
     <t>Direct</t>
   </si>
   <si>
-    <t>Bass</t>
-  </si>
-  <si>
-    <t>Keys</t>
-  </si>
-  <si>
     <t>Telefunken M80</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Bluetooth</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>Guitar Left</t>
-  </si>
-  <si>
-    <t>Guitar Right</t>
-  </si>
-  <si>
     <t>Shure 55SH</t>
   </si>
   <si>
@@ -227,18 +212,6 @@
   </si>
   <si>
     <t>Chad</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Kenzi</t>
   </si>
   <si>
     <t>Overhead Hat</t>
@@ -296,9 +269,6 @@
     <t>Jessica Acstc</t>
   </si>
   <si>
-    <t>Bongos</t>
-  </si>
-  <si>
     <t>Shure SM57</t>
   </si>
   <si>
@@ -416,9 +386,6 @@
     <t>Drum Clamp</t>
   </si>
   <si>
-    <t>Bongo Stand</t>
-  </si>
-  <si>
     <t>Hanging Mic Stand</t>
   </si>
   <si>
@@ -456,29 +423,96 @@
   </si>
   <si>
     <t>www.theperfectstrangers.band</t>
-  </si>
-  <si>
-    <t>Full Band Setup</t>
   </si>
   <si>
     <t>BT 
 Right</t>
   </si>
   <si>
-    <t>Paul Mndln</t>
-  </si>
-  <si>
-    <t>CAD CM217</t>
-  </si>
-  <si>
-    <t>Mic stand boom</t>
+    <t>SR Vocals</t>
+  </si>
+  <si>
+    <t>SR Aux</t>
+  </si>
+  <si>
+    <t>SR Bass</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>John
+Bass</t>
+  </si>
+  <si>
+    <t>Jessica
+Guitar</t>
+  </si>
+  <si>
+    <t>Paul
+Guitar</t>
+  </si>
+  <si>
+    <t>Kenzi
+Keys</t>
+  </si>
+  <si>
+    <t>Stage Right</t>
+  </si>
+  <si>
+    <t>Stage Left</t>
+  </si>
+  <si>
+    <t>CSR Vocals</t>
+  </si>
+  <si>
+    <t>CSR Acoustic</t>
+  </si>
+  <si>
+    <t>CSL Vocals</t>
+  </si>
+  <si>
+    <t>CSL Electric</t>
+  </si>
+  <si>
+    <t>SL Electric</t>
+  </si>
+  <si>
+    <t>SL Acoustic</t>
+  </si>
+  <si>
+    <t>SL Vocals</t>
+  </si>
+  <si>
+    <t>SL Piano</t>
+  </si>
+  <si>
+    <t>Drum Vocals</t>
+  </si>
+  <si>
+    <t>SL Keys</t>
+  </si>
+  <si>
+    <t>Center Stage Right</t>
+  </si>
+  <si>
+    <t>Center Stage Left</t>
+  </si>
+  <si>
+    <t>SR Drum Overhd</t>
+  </si>
+  <si>
+    <t>SL Drum Overhd</t>
+  </si>
+  <si>
+    <t>Full Band Setup 3.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,14 +552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -534,14 +560,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -572,14 +590,6 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -587,31 +597,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -657,16 +643,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -876,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,32 +890,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -922,82 +953,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,71 +1034,80 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1081,16 +1118,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <i val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1101,12 +1135,64 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00E266"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
+        </left>
+        <right style="thin">
           <color indexed="64"/>
-        </horizontal>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00E266"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1124,47 +1210,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1276,22 +1321,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}" name="Table2" displayName="Table2" ref="N4:O20" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}" name="Table2" displayName="Table2" ref="N4:O20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="3">
   <autoFilter ref="N4:O20" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{49BF8DF2-5386-41E7-B011-F853E4FE75C2}" name="Channel" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{85FAB182-B344-4EA5-B466-95EC3E4BC71D}" name="Name" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{49BF8DF2-5386-41E7-B011-F853E4FE75C2}" name="Channel" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{85FAB182-B344-4EA5-B466-95EC3E4BC71D}" name="Name" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}" name="Table3" displayName="Table3" ref="K4:L28" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}" name="Table3" displayName="Table3" ref="K4:L28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
   <autoFilter ref="K4:L28" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B9139E83-F123-47D5-9BE7-0B1EAD9E7473}" name="Channel" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{27CB3066-5421-4E5F-89F2-CBCCA63E2B40}" name="Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B9139E83-F123-47D5-9BE7-0B1EAD9E7473}" name="Channel" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{27CB3066-5421-4E5F-89F2-CBCCA63E2B40}" name="Name" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1597,13 +1642,13 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -1615,92 +1660,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="e" vm="1">
+      <c r="A1" s="32" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
-        <v>51</v>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1708,45 +1753,43 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="20">
+        <v>3</v>
+      </c>
+      <c r="D6" s="20">
+        <v>3</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="22">
-        <v>3</v>
-      </c>
-      <c r="D6" s="22">
-        <v>3</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>74</v>
-      </c>
+      <c r="G6" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -1754,49 +1797,49 @@
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="20">
+        <v>5</v>
+      </c>
+      <c r="D8" s="20">
+        <v>5</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="22">
-        <v>5</v>
-      </c>
-      <c r="D8" s="22">
-        <v>5</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>74</v>
+      <c r="G8" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -1804,49 +1847,49 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="22">
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="20">
         <v>7</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>7</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>74</v>
+      <c r="G10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="2">
         <v>8</v>
       </c>
@@ -1854,147 +1897,145 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="20">
+        <v>9</v>
+      </c>
+      <c r="D12" s="20">
+        <v>9</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="22">
-        <v>9</v>
-      </c>
-      <c r="D12" s="22">
-        <v>9</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>74</v>
+      <c r="G12" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <v>11</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="22">
-        <v>11</v>
-      </c>
-      <c r="D14" s="22">
-        <v>11</v>
-      </c>
-      <c r="E14" s="33" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="2">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2">
-        <v>12</v>
-      </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="22">
-        <v>13</v>
-      </c>
-      <c r="D16" s="22">
-        <v>13</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="7">
         <v>14</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="E17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>40</v>
+      <c r="A18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="5">
         <v>15</v>
@@ -2003,7 +2044,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>35</v>
@@ -2015,173 +2056,173 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="18">
+      <c r="A19" s="22"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="16">
         <v>16</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>16</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="18">
+        <v>17</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="19">
+        <v>18</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="18">
+        <v>19</v>
+      </c>
+      <c r="D22" s="18">
+        <v>3</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="10">
+        <v>20</v>
+      </c>
+      <c r="D23" s="10">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="11">
+        <v>21</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="10">
-        <v>17</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="G24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="15">
+        <v>22</v>
+      </c>
+      <c r="D25" s="15">
+        <v>6</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="11">
-        <v>18</v>
-      </c>
-      <c r="D21" s="11">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="20">
-        <v>19</v>
-      </c>
-      <c r="D22" s="20">
-        <v>3</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="21">
-        <v>20</v>
-      </c>
-      <c r="D23" s="21">
-        <v>4</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="20">
-        <v>21</v>
-      </c>
-      <c r="D24" s="20">
-        <v>5</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="17">
-        <v>22</v>
-      </c>
-      <c r="D25" s="17">
-        <v>6</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17" t="s">
-        <v>121</v>
+      <c r="F25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="8">
         <v>23</v>
       </c>
@@ -2192,38 +2233,30 @@
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="17">
+      <c r="A27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7">
         <v>24</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="7">
         <v>8</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="E27" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -2234,20 +2267,20 @@
       <c r="D28" s="7">
         <v>9</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>37</v>
+      <c r="A29" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="C29" s="3">
         <v>26</v>
@@ -2256,20 +2289,22 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="4">
         <v>27</v>
       </c>
@@ -2277,20 +2312,20 @@
         <v>11</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="3">
         <v>28</v>
       </c>
@@ -2298,22 +2333,20 @@
         <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="4">
         <v>29</v>
       </c>
@@ -2321,20 +2354,20 @@
         <v>13</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="3">
         <v>30</v>
       </c>
@@ -2342,23 +2375,23 @@
         <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>123</v>
+      <c r="A34" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="C34" s="5">
         <v>31</v>
@@ -2367,67 +2400,69 @@
         <v>15</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="18">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="16">
         <v>32</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="16">
         <v>16</v>
       </c>
-      <c r="E35" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18" t="s">
-        <v>127</v>
+      <c r="E35" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="E17:I17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="E28:I28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E14:I14"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="597" r:id="rId1"/>
 </worksheet>
@@ -2438,7 +2473,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,49 +2490,49 @@
     <col min="19" max="19" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="e" vm="1">
+    <row r="1" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="32"/>
+      <c r="C1" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+    </row>
+    <row r="2" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
@@ -2506,17 +2541,17 @@
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
-      <c r="I3" s="16"/>
-      <c r="K3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="54"/>
-      <c r="N3" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="53"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="14"/>
+      <c r="K3" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="62"/>
+      <c r="N3" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
@@ -2527,264 +2562,269 @@
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
-      <c r="I4" s="16"/>
-      <c r="K4" s="19" t="s">
+      <c r="I4" s="14"/>
+      <c r="K4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="19" t="s">
+      <c r="L4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="O4" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>3</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>4</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>5</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>6</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>7</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>8</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="K5" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="22" t="s">
+      <c r="I5" s="14"/>
+      <c r="K5" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="70"/>
+      <c r="N5" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="C6" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="K6" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="70"/>
+      <c r="N6" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="14"/>
+      <c r="K7" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="70"/>
+      <c r="N7" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="14"/>
+      <c r="K8" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="N8" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13">
         <v>10</v>
       </c>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="52" t="s">
+      <c r="C9" s="13">
         <v>11</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="D9" s="13">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13">
+        <v>13</v>
+      </c>
+      <c r="F9" s="13">
+        <v>14</v>
+      </c>
+      <c r="G9" s="13">
+        <v>15</v>
+      </c>
+      <c r="H9" s="13">
         <v>16</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="K6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="16"/>
-      <c r="K7" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="12"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="16"/>
-      <c r="K8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>9</v>
-      </c>
-      <c r="B9" s="15">
-        <v>10</v>
-      </c>
-      <c r="C9" s="15">
-        <v>11</v>
-      </c>
-      <c r="D9" s="15">
-        <v>12</v>
-      </c>
-      <c r="E9" s="15">
-        <v>13</v>
-      </c>
-      <c r="F9" s="15">
-        <v>14</v>
-      </c>
-      <c r="G9" s="15">
-        <v>15</v>
-      </c>
-      <c r="H9" s="15">
-        <v>16</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="K9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="61" t="s">
+      <c r="I9" s="14"/>
+      <c r="K9" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="K10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="16"/>
-      <c r="K11" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="16"/>
-      <c r="K12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="70"/>
+      <c r="N9" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="K10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="70"/>
+      <c r="N10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="14"/>
+      <c r="K11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" s="70"/>
+      <c r="N11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="14"/>
+      <c r="K12" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="70"/>
+      <c r="N12" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>8</v>
       </c>
@@ -2795,160 +2835,172 @@
       <c r="F13" s="55"/>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
-      <c r="I13" s="16"/>
-      <c r="K13" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="I13" s="66"/>
+      <c r="K13" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" s="70"/>
+      <c r="N13" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>1</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>2</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>4</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>5</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>6</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <v>7</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <v>8</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="K14" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="I14" s="14"/>
+      <c r="K14" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="70"/>
+      <c r="N14" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="K15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="16"/>
-      <c r="K16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="16"/>
-      <c r="K17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="16"/>
-      <c r="K18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="14"/>
+      <c r="K15" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="70"/>
+      <c r="N15" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" s="83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="14"/>
+      <c r="K16" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="70"/>
+      <c r="N16" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="14"/>
+      <c r="K17" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="70"/>
+      <c r="N17" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="14"/>
+      <c r="K18" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="70"/>
+      <c r="N18" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -2957,22 +3009,22 @@
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="55"/>
-      <c r="I19" s="16"/>
-      <c r="K19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="14"/>
+      <c r="K19" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="70"/>
+      <c r="N19" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>0</v>
       </c>
@@ -2983,239 +3035,252 @@
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="55"/>
-      <c r="I20" s="16"/>
-      <c r="K20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="I20" s="14"/>
+      <c r="K20" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="70"/>
+      <c r="N20" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>1</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <v>2</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>4</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="13">
         <v>5</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="13">
         <v>6</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="13">
         <v>7</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="13">
         <v>8</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="K21" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="65" t="s">
+      <c r="I21" s="14"/>
+      <c r="K21" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21" s="70"/>
+      <c r="N21" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="65"/>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="57" t="s">
+      <c r="O21" s="54"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="B22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="62" t="s">
+      <c r="C22" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="K22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="2" t="s">
+      <c r="H22" s="68"/>
+      <c r="I22" s="14"/>
+      <c r="K22" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="O22" s="48"/>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="16"/>
-      <c r="K23" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" s="22" t="s">
+      <c r="M22" s="70"/>
+      <c r="N22" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="84"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="14"/>
+      <c r="K23" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="16"/>
-      <c r="K24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L24" s="2" t="s">
+      <c r="M23" s="70"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="14"/>
+      <c r="K24" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="O24" s="47"/>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="M24" s="70"/>
+      <c r="N24" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" s="85"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>9</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="13">
         <v>10</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>11</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>12</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="13">
         <v>13</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="13">
         <v>14</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="13">
         <v>15</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="13">
         <v>16</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="K25" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="L25" s="22" t="s">
+      <c r="I25" s="14"/>
+      <c r="K25" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="58" t="s">
+      <c r="M25" s="70"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="75"/>
+      <c r="B26" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="F26" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="K26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L26" s="2" t="s">
+      <c r="G26" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="K26" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="O26" s="48"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="16"/>
-      <c r="K27" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="16"/>
-      <c r="K28" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>134</v>
+      <c r="M26" s="70"/>
+      <c r="N26" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" s="84"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="14"/>
+      <c r="K27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="70"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="14"/>
+      <c r="K28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="O28" s="49"/>
-    </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="63"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
         <v>8</v>
       </c>
@@ -3226,92 +3291,157 @@
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55"/>
-      <c r="I29" s="16"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-    </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="I29" s="14"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>3</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>4</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="13">
         <v>5</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="13">
         <v>6</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="13">
         <v>7</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="13">
         <v>8</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="N30" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="O30" s="50"/>
-    </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="63" t="s">
+      <c r="I30" s="14"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" s="64"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="68"/>
+      <c r="G31" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="63" t="s">
+      <c r="H31" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="14"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="16"/>
-      <c r="N32" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="O32" s="47"/>
+      <c r="O32" s="85"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="16"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
+      <c r="I33" s="14"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
     </row>
     <row r="34" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="N24:O25"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="N32:O33"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O23"/>
     <mergeCell ref="G10:G11"/>
@@ -3328,58 +3458,8 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="K1:O2"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="N24:O25"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="N32:O33"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="2">

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E5E60-DBF8-4AB7-AE74-5BF538086772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62D5DE2-B666-4CD6-8FA8-6AA28E472E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -429,15 +429,6 @@
 Right</t>
   </si>
   <si>
-    <t>SR Vocals</t>
-  </si>
-  <si>
-    <t>SR Aux</t>
-  </si>
-  <si>
-    <t>SR Bass</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -463,49 +454,58 @@
     <t>Stage Left</t>
   </si>
   <si>
-    <t>CSR Vocals</t>
-  </si>
-  <si>
-    <t>CSR Acoustic</t>
-  </si>
-  <si>
-    <t>CSL Vocals</t>
-  </si>
-  <si>
-    <t>CSL Electric</t>
-  </si>
-  <si>
-    <t>SL Electric</t>
-  </si>
-  <si>
-    <t>SL Acoustic</t>
-  </si>
-  <si>
-    <t>SL Vocals</t>
-  </si>
-  <si>
-    <t>SL Piano</t>
-  </si>
-  <si>
-    <t>Drum Vocals</t>
-  </si>
-  <si>
-    <t>SL Keys</t>
-  </si>
-  <si>
     <t>Center Stage Right</t>
   </si>
   <si>
     <t>Center Stage Left</t>
   </si>
   <si>
-    <t>SR Drum Overhd</t>
-  </si>
-  <si>
-    <t>SL Drum Overhd</t>
-  </si>
-  <si>
-    <t>Full Band Setup 3.0</t>
+    <t>DSR Vocals</t>
+  </si>
+  <si>
+    <t>DCL Vocals</t>
+  </si>
+  <si>
+    <t>DCL Electric</t>
+  </si>
+  <si>
+    <t>DCR Vocals</t>
+  </si>
+  <si>
+    <t>DCR Acoustic</t>
+  </si>
+  <si>
+    <t>DSR Bass</t>
+  </si>
+  <si>
+    <t>DSR Aux</t>
+  </si>
+  <si>
+    <t>DSL Vocals</t>
+  </si>
+  <si>
+    <t>DSL Piano</t>
+  </si>
+  <si>
+    <t>DSL Keys</t>
+  </si>
+  <si>
+    <t>DSL Electric</t>
+  </si>
+  <si>
+    <t>DSL Acoustic</t>
+  </si>
+  <si>
+    <t>Full Band Setup 3.1</t>
+  </si>
+  <si>
+    <t>UCL Drum Overhd</t>
+  </si>
+  <si>
+    <t>UCR Drum Overhd</t>
+  </si>
+  <si>
+    <t>USC Vocals</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -911,15 +911,85 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -938,170 +1008,89 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <i val="0"/>
@@ -1141,6 +1130,23 @@
       <font>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1196,21 +1202,9 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <font>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1321,7 +1315,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}" name="Table2" displayName="Table2" ref="N4:O20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}" name="Table2" displayName="Table2" ref="N4:O20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="N4:O20" xr:uid="{4F9D055F-F885-4EC9-A0D7-7F756C0DE538}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{49BF8DF2-5386-41E7-B011-F853E4FE75C2}" name="Channel" dataDxfId="5"/>
@@ -1332,11 +1326,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}" name="Table3" displayName="Table3" ref="K4:L28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}" name="Table3" displayName="Table3" ref="K4:L28" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="K4:L28" xr:uid="{357BDED8-50CF-405F-91F9-06ABE3131BF6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B9139E83-F123-47D5-9BE7-0B1EAD9E7473}" name="Channel" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{27CB3066-5421-4E5F-89F2-CBCCA63E2B40}" name="Name" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B9139E83-F123-47D5-9BE7-0B1EAD9E7473}" name="Channel" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{27CB3066-5421-4E5F-89F2-CBCCA63E2B40}" name="Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1641,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,39 +1654,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="34" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>21</v>
@@ -1717,10 +1711,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="20">
@@ -1744,8 +1738,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1767,8 +1761,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="20">
         <v>3</v>
       </c>
@@ -1788,8 +1782,8 @@
       <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -1813,8 +1807,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="20">
         <v>5</v>
       </c>
@@ -1838,8 +1832,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -1863,8 +1857,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="20">
         <v>7</v>
       </c>
@@ -1888,8 +1882,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="2">
         <v>8</v>
       </c>
@@ -1913,8 +1907,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="20">
         <v>9</v>
       </c>
@@ -1938,27 +1932,27 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1971,13 +1965,13 @@
       <c r="D14" s="7">
         <v>11</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
@@ -1988,13 +1982,13 @@
       <c r="D15" s="7">
         <v>12</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
@@ -2005,13 +1999,13 @@
       <c r="D16" s="7">
         <v>13</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
@@ -2022,19 +2016,19 @@
       <c r="D17" s="7">
         <v>14</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="5">
@@ -2056,8 +2050,8 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="16">
         <v>16</v>
       </c>
@@ -2077,11 +2071,11 @@
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>130</v>
+      <c r="A20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="C20" s="18">
         <v>17</v>
@@ -2104,8 +2098,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="19">
         <v>18</v>
       </c>
@@ -2125,8 +2119,8 @@
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="18">
         <v>19</v>
       </c>
@@ -2146,11 +2140,11 @@
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>142</v>
+      <c r="A23" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="C23" s="10">
         <v>20</v>
@@ -2173,8 +2167,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="11">
         <v>21</v>
       </c>
@@ -2194,11 +2188,11 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>143</v>
+      <c r="A25" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="C25" s="15">
         <v>22</v>
@@ -2221,8 +2215,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="8">
         <v>23</v>
       </c>
@@ -2250,13 +2244,13 @@
       <c r="D27" s="7">
         <v>8</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -2267,20 +2261,20 @@
       <c r="D28" s="7">
         <v>9</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>131</v>
+      <c r="A29" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>128</v>
       </c>
       <c r="C29" s="3">
         <v>26</v>
@@ -2303,8 +2297,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="4">
         <v>27</v>
       </c>
@@ -2324,8 +2318,8 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="3">
         <v>28</v>
       </c>
@@ -2345,8 +2339,8 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="4">
         <v>29</v>
       </c>
@@ -2366,8 +2360,8 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="3">
         <v>30</v>
       </c>
@@ -2387,10 +2381,10 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="5">
@@ -2414,8 +2408,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="16">
         <v>32</v>
       </c>
@@ -2438,13 +2432,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2456,11 +2448,13 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2472,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036672A4-8952-44C6-9E0D-0D4906E8D835}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,87 +2475,87 @@
     <col min="1" max="8" width="7.28515625" customWidth="1"/>
     <col min="9" max="10" width="2" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="7.28515625" customWidth="1"/>
     <col min="18" max="18" width="7.28515625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="14"/>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="N3" s="61" t="s">
+      <c r="L3" s="61"/>
+      <c r="N3" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="61"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="14"/>
       <c r="K4" s="17" t="s">
         <v>21</v>
@@ -2602,106 +2596,102 @@
         <v>8</v>
       </c>
       <c r="I5" s="14"/>
-      <c r="K5" s="81" t="s">
+      <c r="K5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="81" t="s">
+      <c r="L5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="81" t="s">
-        <v>122</v>
+      <c r="O5" s="18" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="67" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="14"/>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="81" t="s">
+      <c r="L6" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="81" t="s">
-        <v>124</v>
+      <c r="O6" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="60"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="14"/>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="81" t="s">
+      <c r="L7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="81" t="s">
-        <v>123</v>
+      <c r="O7" s="18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="14"/>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="82" t="s">
+      <c r="L8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="82" t="s">
-        <v>132</v>
+      <c r="O8" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2730,31 +2720,30 @@
         <v>16</v>
       </c>
       <c r="I9" s="14"/>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="82" t="s">
+      <c r="L9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="82" t="s">
-        <v>133</v>
+      <c r="O9" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="69" t="s">
         <v>58</v>
       </c>
@@ -2766,23 +2755,22 @@
         <v>86</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" s="70"/>
+        <v>132</v>
+      </c>
       <c r="N10" s="15" t="s">
         <v>86</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="69"/>
       <c r="H11" s="69"/>
       <c r="I11" s="14"/>
@@ -2790,63 +2778,52 @@
         <v>87</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" s="70"/>
+        <v>133</v>
+      </c>
       <c r="N11" s="15" t="s">
         <v>87</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
       <c r="I12" s="14"/>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="83" t="s">
+      <c r="L12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="83" t="s">
+      <c r="N12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="66"/>
-      <c r="K13" s="83" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="14"/>
+      <c r="K13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="83" t="s">
+      <c r="L13" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="83" t="s">
+      <c r="N13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="83" t="s">
+      <c r="O13" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2876,89 +2853,78 @@
         <v>8</v>
       </c>
       <c r="I14" s="14"/>
-      <c r="K14" s="83" t="s">
+      <c r="K14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="83" t="s">
+      <c r="L14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="14"/>
+      <c r="K15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M14" s="70"/>
-      <c r="N14" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="83" t="s">
+      <c r="N15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="14"/>
-      <c r="K15" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" s="83" t="s">
-        <v>136</v>
-      </c>
-    </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="14"/>
-      <c r="K16" s="83" t="s">
+      <c r="K16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" s="70"/>
-      <c r="N16" s="83" t="s">
+      <c r="L16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O16" s="83" t="s">
-        <v>137</v>
+      <c r="O16" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
       <c r="I17" s="14"/>
       <c r="K17" s="20" t="s">
         <v>93</v>
@@ -2966,7 +2932,6 @@
       <c r="L17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="70"/>
       <c r="N17" s="20" t="s">
         <v>93</v>
       </c>
@@ -2975,14 +2940,6 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
       <c r="I18" s="14"/>
       <c r="K18" s="20" t="s">
         <v>94</v>
@@ -2990,7 +2947,6 @@
       <c r="L18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="70"/>
       <c r="N18" s="20" t="s">
         <v>94</v>
       </c>
@@ -2999,55 +2955,53 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="14"/>
       <c r="K19" s="20" t="s">
         <v>95</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="70"/>
+        <v>144</v>
+      </c>
       <c r="N19" s="20" t="s">
         <v>95</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="14"/>
       <c r="K20" s="20" t="s">
         <v>96</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="M20" s="70"/>
+        <v>145</v>
+      </c>
       <c r="N20" s="20" t="s">
         <v>96</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3080,37 +3034,36 @@
         <v>97</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="54"/>
+      <c r="O21" s="78"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="68"/>
+      <c r="H22" s="59"/>
       <c r="I22" s="14"/>
       <c r="K22" s="20" t="s">
         <v>98</v>
@@ -3118,21 +3071,20 @@
       <c r="L22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M22" s="70"/>
-      <c r="N22" s="84" t="s">
+      <c r="N22" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="O22" s="84"/>
+      <c r="O22" s="56"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="68"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="14"/>
       <c r="K23" s="20" t="s">
         <v>99</v>
@@ -3140,19 +3092,18 @@
       <c r="L23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="70"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="14"/>
       <c r="K24" s="20" t="s">
         <v>100</v>
@@ -3160,11 +3111,10 @@
       <c r="L24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="70"/>
-      <c r="N24" s="85" t="s">
+      <c r="N24" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="O24" s="85"/>
+      <c r="O24" s="55"/>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -3198,25 +3148,24 @@
       <c r="L25" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="70"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
-      <c r="B26" s="76" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F26" s="72" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="69" t="s">
@@ -3232,19 +3181,18 @@
       <c r="L26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="70"/>
-      <c r="N26" s="84" t="s">
+      <c r="N26" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="84"/>
+      <c r="O26" s="56"/>
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="69"/>
       <c r="H27" s="69"/>
       <c r="I27" s="14"/>
@@ -3254,19 +3202,10 @@
       <c r="L27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="70"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
       <c r="I28" s="14"/>
       <c r="K28" s="7" t="s">
         <v>104</v>
@@ -3275,28 +3214,25 @@
         <v>31</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="63" t="s">
+      <c r="N28" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="O28" s="63"/>
+      <c r="O28" s="57"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
       <c r="I29" s="14"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -3324,124 +3260,62 @@
         <v>8</v>
       </c>
       <c r="I30" s="14"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="64" t="s">
+      <c r="N30" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="O30" s="64"/>
+      <c r="O30" s="58"/>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="79" t="s">
+      <c r="E31" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="80" t="s">
+      <c r="F31" s="59"/>
+      <c r="G31" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="H31" s="75" t="s">
         <v>70</v>
       </c>
       <c r="I31" s="14"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="14"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="85" t="s">
+      <c r="N32" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="O32" s="85"/>
+      <c r="O32" s="55"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="14"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
     </row>
     <row r="34" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="N24:O25"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="N32:O33"/>
-    <mergeCell ref="K1:O2"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O23"/>
     <mergeCell ref="G10:G11"/>
@@ -3458,6 +3332,56 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="N24:O25"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="N32:O33"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62D5DE2-B666-4CD6-8FA8-6AA28E472E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0B4B0-B138-4256-B1FB-E2451BB1F7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="156">
   <si>
     <t>Input</t>
   </si>
@@ -466,15 +466,9 @@
     <t>DCL Vocals</t>
   </si>
   <si>
-    <t>DCL Electric</t>
-  </si>
-  <si>
     <t>DCR Vocals</t>
   </si>
   <si>
-    <t>DCR Acoustic</t>
-  </si>
-  <si>
     <t>DSR Bass</t>
   </si>
   <si>
@@ -487,25 +481,58 @@
     <t>DSL Piano</t>
   </si>
   <si>
-    <t>DSL Keys</t>
-  </si>
-  <si>
-    <t>DSL Electric</t>
-  </si>
-  <si>
-    <t>DSL Acoustic</t>
-  </si>
-  <si>
-    <t>Full Band Setup 3.1</t>
-  </si>
-  <si>
-    <t>UCL Drum Overhd</t>
-  </si>
-  <si>
-    <t>UCR Drum Overhd</t>
-  </si>
-  <si>
     <t>USC Vocals</t>
+  </si>
+  <si>
+    <t>DSL Keyboard</t>
+  </si>
+  <si>
+    <t>DCR Acstc Guitar</t>
+  </si>
+  <si>
+    <t>DSL Acstc Guitar</t>
+  </si>
+  <si>
+    <t>DSL Elec Guitar</t>
+  </si>
+  <si>
+    <t>DCL Elec Guitar</t>
+  </si>
+  <si>
+    <t>USC Kick</t>
+  </si>
+  <si>
+    <t>USC Snare</t>
+  </si>
+  <si>
+    <t>USC Tom 1</t>
+  </si>
+  <si>
+    <t>USC Tom 2</t>
+  </si>
+  <si>
+    <t>USC Tom 3</t>
+  </si>
+  <si>
+    <t>USC Tom 4</t>
+  </si>
+  <si>
+    <t>USC Hi-Hat</t>
+  </si>
+  <si>
+    <t>USC SL Overhd</t>
+  </si>
+  <si>
+    <t>USC SR Overhd</t>
+  </si>
+  <si>
+    <t>DSL Elec Gtr</t>
+  </si>
+  <si>
+    <t>DSL Acstc Gtr</t>
+  </si>
+  <si>
+    <t>Full Band Setup 3.2</t>
   </si>
 </sst>
 </file>
@@ -674,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,12 +711,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,12 +765,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0066FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,31 +898,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
@@ -915,37 +928,37 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -966,91 +979,91 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1059,33 +1072,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,6 +1242,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00E266"/>
       <color rgb="FFA3E0FF"/>
       <color rgb="FFE5F5FF"/>
@@ -1236,7 +1252,6 @@
       <color rgb="FFE2EFDA"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF00B050"/>
-      <color rgb="FF70AD47"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1636,7 +1651,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,92 +1669,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1761,29 +1776,29 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="20">
+      <c r="A6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="18">
         <v>3</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>3</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -1807,33 +1822,33 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="20">
+      <c r="A8" s="41"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="18">
         <v>5</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>5</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -1857,33 +1872,33 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="20">
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="18">
         <v>7</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>7</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="2">
         <v>8</v>
       </c>
@@ -1907,33 +1922,33 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="20">
+      <c r="A12" s="41"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="18">
         <v>9</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>9</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="2">
         <v>10</v>
       </c>
@@ -1957,476 +1972,476 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="7">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="6">
         <v>11</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>11</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="7">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="6">
         <v>12</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>12</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="7">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="6">
         <v>13</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>13</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="7">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="6">
         <v>14</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>14</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>15</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>15</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="16">
+      <c r="A19" s="39"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="14">
         <v>16</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <v>17</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <v>1</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18" t="s">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="19">
+      <c r="A21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="17">
         <v>18</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="17">
         <v>2</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="18">
+      <c r="A22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="16">
         <v>19</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="16">
         <v>3</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>20</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>4</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="11">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="10">
         <v>21</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>5</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="80">
         <v>22</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="80">
         <v>6</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15" t="s">
+      <c r="H25" s="80"/>
+      <c r="I25" s="80" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="8">
+      <c r="A26" s="23"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="7">
         <v>23</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>7</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6">
         <v>24</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7">
+      <c r="A28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6">
         <v>25</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>9</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="74">
         <v>26</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="74">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="74"/>
+      <c r="I29" s="74" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="4">
+      <c r="A30" s="48"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="3">
         <v>27</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="3">
+      <c r="A31" s="48"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="74">
         <v>28</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="74">
         <v>12</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="4">
+      <c r="A32" s="48"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="3">
         <v>29</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>13</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="74">
         <v>30</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="74">
         <v>14</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>31</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>15</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5" t="s">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="16">
+      <c r="A35" s="39"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="14">
         <v>32</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="14">
         <v>16</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16" t="s">
+      <c r="H35" s="14"/>
+      <c r="I35" s="14" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2467,7 +2482,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,832 +2500,832 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="13"/>
+      <c r="K3" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="59"/>
+      <c r="N3" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="13"/>
+      <c r="K4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12">
+        <v>8</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="K5" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="K6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="13"/>
+      <c r="K7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12">
+        <v>14</v>
+      </c>
+      <c r="G9" s="12">
+        <v>15</v>
+      </c>
+      <c r="H9" s="12">
+        <v>16</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="K9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="K10" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="80" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-    </row>
-    <row r="2" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="14"/>
-      <c r="K3" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="61"/>
-      <c r="N3" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="60"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="N11" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="13"/>
+      <c r="K12" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="N12" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="13"/>
+      <c r="K13" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12">
+        <v>6</v>
+      </c>
+      <c r="G14" s="12">
+        <v>7</v>
+      </c>
+      <c r="H14" s="12">
+        <v>8</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="K14" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="13"/>
+      <c r="K15" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="N15" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" s="74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="13"/>
+      <c r="K16" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="N16" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="13"/>
+      <c r="K17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="13"/>
+      <c r="K18" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="13"/>
+      <c r="K19" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="14"/>
-      <c r="K4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="13"/>
+      <c r="K20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B21" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C21" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D21" s="12">
         <v>4</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E21" s="12">
         <v>5</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F21" s="12">
         <v>6</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G21" s="12">
         <v>7</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H21" s="12">
         <v>8</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="K5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="63" t="s">
+      <c r="I21" s="13"/>
+      <c r="K21" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="N21" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="71"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="13"/>
+      <c r="K22" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="N22" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="54"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="13"/>
+      <c r="K23" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="13"/>
+      <c r="K24" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="N24" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" s="53"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>9</v>
+      </c>
+      <c r="B25" s="12">
         <v>10</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C25" s="12">
         <v>11</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D25" s="12">
+        <v>12</v>
+      </c>
+      <c r="E25" s="12">
+        <v>13</v>
+      </c>
+      <c r="F25" s="12">
+        <v>14</v>
+      </c>
+      <c r="G25" s="12">
+        <v>15</v>
+      </c>
+      <c r="H25" s="12">
         <v>16</v>
       </c>
-      <c r="E6" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="K6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="14"/>
-      <c r="K7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="14"/>
-      <c r="K8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>9</v>
-      </c>
-      <c r="B9" s="13">
-        <v>10</v>
-      </c>
-      <c r="C9" s="13">
-        <v>11</v>
-      </c>
-      <c r="D9" s="13">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13">
-        <v>13</v>
-      </c>
-      <c r="F9" s="13">
-        <v>14</v>
-      </c>
-      <c r="G9" s="13">
-        <v>15</v>
-      </c>
-      <c r="H9" s="13">
-        <v>16</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="K9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="K10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="14"/>
-      <c r="K11" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="14"/>
-      <c r="K12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="I25" s="13"/>
+      <c r="K25" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="68"/>
+      <c r="B26" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="K26" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="N26" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" s="54"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="13"/>
+      <c r="K27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="13"/>
+      <c r="K28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="55"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="14"/>
-      <c r="K13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="13"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <v>1</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B30" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C30" s="12">
         <v>3</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D30" s="12">
         <v>4</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E30" s="12">
         <v>5</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F30" s="12">
         <v>6</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G30" s="12">
         <v>7</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H30" s="12">
         <v>8</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="K14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="14"/>
-      <c r="K15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="14"/>
-      <c r="K16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="14"/>
-      <c r="K17" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="14"/>
-      <c r="K18" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="14"/>
-      <c r="K19" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="14"/>
-      <c r="K20" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>1</v>
-      </c>
-      <c r="B21" s="13">
-        <v>2</v>
-      </c>
-      <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="13">
-        <v>4</v>
-      </c>
-      <c r="E21" s="13">
-        <v>5</v>
-      </c>
-      <c r="F21" s="13">
-        <v>6</v>
-      </c>
-      <c r="G21" s="13">
-        <v>7</v>
-      </c>
-      <c r="H21" s="13">
-        <v>8</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="K21" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="N21" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="78"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="14"/>
-      <c r="K22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="O22" s="56"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="14"/>
-      <c r="K23" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="14"/>
-      <c r="K24" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="O24" s="55"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>9</v>
-      </c>
-      <c r="B25" s="13">
-        <v>10</v>
-      </c>
-      <c r="C25" s="13">
-        <v>11</v>
-      </c>
-      <c r="D25" s="13">
-        <v>12</v>
-      </c>
-      <c r="E25" s="13">
-        <v>13</v>
-      </c>
-      <c r="F25" s="13">
-        <v>14</v>
-      </c>
-      <c r="G25" s="13">
-        <v>15</v>
-      </c>
-      <c r="H25" s="13">
-        <v>16</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="K25" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="K26" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="O26" s="56"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="14"/>
-      <c r="K27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-    </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="14"/>
-      <c r="K28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="O28" s="57"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="14"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>1</v>
-      </c>
-      <c r="B30" s="13">
-        <v>2</v>
-      </c>
-      <c r="C30" s="13">
-        <v>3</v>
-      </c>
-      <c r="D30" s="13">
-        <v>4</v>
-      </c>
-      <c r="E30" s="13">
-        <v>5</v>
-      </c>
-      <c r="F30" s="13">
-        <v>6</v>
-      </c>
-      <c r="G30" s="13">
-        <v>7</v>
-      </c>
-      <c r="H30" s="13">
-        <v>8</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="N30" s="58" t="s">
+      <c r="I30" s="13"/>
+      <c r="N30" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="O30" s="58"/>
+      <c r="O30" s="56"/>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="79" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="75" t="s">
+      <c r="F31" s="57"/>
+      <c r="G31" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="75" t="s">
+      <c r="H31" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
+      <c r="I31" s="13"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="76"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="77"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="14"/>
-      <c r="N32" s="55" t="s">
+      <c r="F32" s="57"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="13"/>
+      <c r="N32" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="O32" s="55"/>
+      <c r="O32" s="53"/>
     </row>
     <row r="33" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="14"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
+      <c r="I33" s="13"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
     </row>
     <row r="34" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66AAD8B-BA2C-4281-A02B-E811B857CF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33340723-800E-44F8-901F-000634D1036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -775,15 +775,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -802,85 +873,73 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,65 +948,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,36 +1357,36 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="22" width="7.28515625" customWidth="1"/>
+    <col min="10" max="21" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1418,10 +1418,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1489,8 +1489,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1564,8 +1564,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1732,10 +1732,10 @@
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1757,8 +1757,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1778,10 +1778,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1826,8 +1826,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1977,10 +1977,10 @@
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="52" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2088,10 +2088,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="48" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2115,8 +2115,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2139,13 +2139,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2157,11 +2155,13 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,90 +2187,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="33" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="76">
+      <c r="K4" s="56">
         <v>1</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2298,66 +2298,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="67" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="71">
+      <c r="K6" s="55">
         <v>2</v>
       </c>
-      <c r="L6" s="73" t="s">
+      <c r="L6" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="70"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2369,16 +2369,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="76">
+      <c r="K8" s="56">
         <v>3</v>
       </c>
-      <c r="L8" s="72" t="s">
+      <c r="L8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2406,90 +2406,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="53" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="69" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="71">
+      <c r="K10" s="55">
         <v>4</v>
       </c>
-      <c r="L10" s="74" t="s">
+      <c r="L10" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="76">
+      <c r="K12" s="56">
         <v>5</v>
       </c>
-      <c r="L12" s="75" t="s">
+      <c r="L12" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2517,95 +2517,95 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="71">
+      <c r="K14" s="55">
         <v>6</v>
       </c>
-      <c r="L14" s="73" t="s">
+      <c r="L14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,39 +2636,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="54"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="54"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2710,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="69" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,39 +2789,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="62"/>
+      <c r="G31" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="75" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,30 +2831,34 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2867,40 +2871,36 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33340723-800E-44F8-901F-000634D1036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C744984C-9D58-4AE8-A102-8B8EBDB17AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -777,9 +777,72 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,68 +873,62 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,68 +942,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,36 +1357,36 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="21" width="7.28515625" customWidth="1"/>
+    <col min="10" max="20" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1418,10 +1418,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1489,8 +1489,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1564,8 +1564,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1689,13 +1689,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1706,13 +1706,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1723,19 +1723,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1757,8 +1757,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1778,10 +1778,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="51" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1826,8 +1826,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="54" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="47" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1951,13 +1951,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1968,19 +1968,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="29" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2088,10 +2088,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2115,8 +2115,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2139,11 +2139,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2155,13 +2157,11 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,90 +2187,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="56">
+      <c r="K4" s="75">
         <v>1</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2298,66 +2298,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="71" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="55">
+      <c r="K6" s="74">
         <v>2</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="68"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="72"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2369,16 +2369,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="56">
+      <c r="K8" s="75">
         <v>3</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2406,90 +2406,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="67" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="55">
+      <c r="K10" s="74">
         <v>4</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="56">
+      <c r="K12" s="75">
         <v>5</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2517,55 +2517,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="55">
+      <c r="K14" s="74">
         <v>6</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,29 +2583,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,39 +2636,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="62"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="62"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2710,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="67" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,39 +2789,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="75" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="75" t="s">
+      <c r="H31" s="59" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,34 +2831,32 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2875,32 +2873,34 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C744984C-9D58-4AE8-A102-8B8EBDB17AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ABE0B9-2CD1-4A1F-B0C4-1E7DDE1763A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -777,15 +777,84 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -804,73 +873,73 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,75 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,36 +1357,36 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="20" width="7.28515625" customWidth="1"/>
+    <col min="10" max="19" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1418,10 +1418,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1489,8 +1489,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1564,8 +1564,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1689,13 +1689,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1706,13 +1706,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1723,19 +1723,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1757,8 +1757,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1778,10 +1778,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1826,8 +1826,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1951,13 +1951,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1968,19 +1968,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="52" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2088,10 +2088,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="48" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2115,8 +2115,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2139,13 +2139,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2157,11 +2155,13 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,90 +2187,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="75">
+      <c r="K4" s="56">
         <v>1</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2298,66 +2298,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="67" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="74">
+      <c r="K6" s="55">
         <v>2</v>
       </c>
-      <c r="L6" s="73" t="s">
+      <c r="L6" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="72"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2369,16 +2369,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="75">
+      <c r="K8" s="56">
         <v>3</v>
       </c>
-      <c r="L8" s="77" t="s">
+      <c r="L8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2406,90 +2406,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="67" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="69" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="74">
+      <c r="K10" s="55">
         <v>4</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="75">
+      <c r="K12" s="56">
         <v>5</v>
       </c>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2517,55 +2517,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="74">
+      <c r="K14" s="55">
         <v>6</v>
       </c>
-      <c r="L14" s="73" t="s">
+      <c r="L14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,29 +2583,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,39 +2636,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="64"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="64"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2710,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="69" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,39 +2789,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="62"/>
+      <c r="G31" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="75" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,32 +2831,34 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2873,34 +2875,32 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ABE0B9-2CD1-4A1F-B0C4-1E7DDE1763A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD23DE-ECBD-492C-BCBC-026C76F94789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -777,9 +777,72 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,68 +873,62 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,68 +942,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,36 +1357,36 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="19" width="7.28515625" customWidth="1"/>
+    <col min="10" max="18" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1418,10 +1418,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1489,8 +1489,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1564,8 +1564,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1689,13 +1689,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1706,13 +1706,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1723,19 +1723,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1757,8 +1757,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1778,10 +1778,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="51" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1826,8 +1826,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="54" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="47" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1951,13 +1951,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1968,19 +1968,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="29" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2088,10 +2088,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2115,8 +2115,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2139,11 +2139,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2155,13 +2157,11 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,90 +2187,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="56">
+      <c r="K4" s="75">
         <v>1</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2298,66 +2298,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="71" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="55">
+      <c r="K6" s="74">
         <v>2</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="68"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="72"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2369,16 +2369,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="56">
+      <c r="K8" s="75">
         <v>3</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2406,90 +2406,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="67" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="55">
+      <c r="K10" s="74">
         <v>4</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="56">
+      <c r="K12" s="75">
         <v>5</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2517,55 +2517,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="55">
+      <c r="K14" s="74">
         <v>6</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,29 +2583,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,39 +2636,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="62"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="62"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2710,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="67" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,39 +2789,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="75" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="75" t="s">
+      <c r="H31" s="59" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,34 +2831,32 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2875,32 +2873,34 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD23DE-ECBD-492C-BCBC-026C76F94789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4864A1C-0752-4BA4-B40C-BD31F28AE4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -777,15 +777,84 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -804,73 +873,73 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,75 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,36 +1357,36 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="18" width="7.28515625" customWidth="1"/>
+    <col min="10" max="17" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1418,10 +1418,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1489,8 +1489,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1564,8 +1564,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1689,13 +1689,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1706,13 +1706,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1723,19 +1723,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1757,8 +1757,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1778,10 +1778,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1826,8 +1826,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1951,13 +1951,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1968,19 +1968,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="52" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2088,10 +2088,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="48" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2115,8 +2115,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2139,13 +2139,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2157,11 +2155,13 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,90 +2187,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="75">
+      <c r="K4" s="56">
         <v>1</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2298,66 +2298,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="67" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="74">
+      <c r="K6" s="55">
         <v>2</v>
       </c>
-      <c r="L6" s="73" t="s">
+      <c r="L6" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="72"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2369,16 +2369,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="75">
+      <c r="K8" s="56">
         <v>3</v>
       </c>
-      <c r="L8" s="77" t="s">
+      <c r="L8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2406,90 +2406,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="67" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="69" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="74">
+      <c r="K10" s="55">
         <v>4</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="75">
+      <c r="K12" s="56">
         <v>5</v>
       </c>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2517,55 +2517,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="74">
+      <c r="K14" s="55">
         <v>6</v>
       </c>
-      <c r="L14" s="73" t="s">
+      <c r="L14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,29 +2583,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,39 +2636,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="64"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="64"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2710,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="69" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,39 +2789,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="62"/>
+      <c r="G31" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="75" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,32 +2831,34 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2873,34 +2875,32 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4864A1C-0752-4BA4-B40C-BD31F28AE4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBA1053-42EB-4D7F-97F3-93B3DA007705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -777,9 +777,72 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,68 +873,62 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,68 +942,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,36 +1357,36 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="17" width="7.28515625" customWidth="1"/>
+    <col min="10" max="16" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1418,10 +1418,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1489,8 +1489,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1564,8 +1564,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1689,13 +1689,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1706,13 +1706,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1723,19 +1723,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1757,8 +1757,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1778,10 +1778,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="51" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1826,8 +1826,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="54" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="47" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1951,13 +1951,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1968,19 +1968,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="29" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2088,10 +2088,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2115,8 +2115,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2139,11 +2139,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2155,13 +2157,11 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,90 +2187,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="56">
+      <c r="K4" s="75">
         <v>1</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2298,66 +2298,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="71" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="55">
+      <c r="K6" s="74">
         <v>2</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="68"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="72"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2369,16 +2369,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="56">
+      <c r="K8" s="75">
         <v>3</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2406,90 +2406,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="67" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="55">
+      <c r="K10" s="74">
         <v>4</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="56">
+      <c r="K12" s="75">
         <v>5</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2517,55 +2517,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="55">
+      <c r="K14" s="74">
         <v>6</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,29 +2583,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,39 +2636,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="62"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="62"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2710,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="67" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,39 +2789,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="75" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="75" t="s">
+      <c r="H31" s="59" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,34 +2831,32 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2875,32 +2873,34 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBA1053-42EB-4D7F-97F3-93B3DA007705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99802F3B-1911-45C3-94C6-1E38ACE2CE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -777,15 +777,84 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -804,73 +873,73 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,75 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,36 +1357,36 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="16" width="7.28515625" customWidth="1"/>
+    <col min="10" max="15" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1418,10 +1418,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1489,8 +1489,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1564,8 +1564,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1689,13 +1689,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1706,13 +1706,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1723,19 +1723,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1757,8 +1757,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1778,10 +1778,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1826,8 +1826,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1951,13 +1951,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1968,19 +1968,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="52" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2088,10 +2088,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="48" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2115,8 +2115,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2139,13 +2139,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2157,11 +2155,13 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,90 +2187,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="75">
+      <c r="K4" s="56">
         <v>1</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2298,66 +2298,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="67" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="74">
+      <c r="K6" s="55">
         <v>2</v>
       </c>
-      <c r="L6" s="73" t="s">
+      <c r="L6" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="72"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2369,16 +2369,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="75">
+      <c r="K8" s="56">
         <v>3</v>
       </c>
-      <c r="L8" s="77" t="s">
+      <c r="L8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2406,90 +2406,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="67" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="69" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="74">
+      <c r="K10" s="55">
         <v>4</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="75">
+      <c r="K12" s="56">
         <v>5</v>
       </c>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2517,55 +2517,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="74">
+      <c r="K14" s="55">
         <v>6</v>
       </c>
-      <c r="L14" s="73" t="s">
+      <c r="L14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,29 +2583,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,39 +2636,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="64"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="64"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2710,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="69" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,39 +2789,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="62"/>
+      <c r="G31" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="75" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,32 +2831,34 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2873,34 +2875,32 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99802F3B-1911-45C3-94C6-1E38ACE2CE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2EDE43-EC3A-4D56-997C-F0A9D503CA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -777,9 +777,72 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,68 +873,62 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,68 +942,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,36 +1357,36 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="15" width="7.28515625" customWidth="1"/>
+    <col min="10" max="14" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1418,10 +1418,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1489,8 +1489,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1564,8 +1564,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1689,13 +1689,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1706,13 +1706,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1723,19 +1723,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1757,8 +1757,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1778,10 +1778,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="51" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1826,8 +1826,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="54" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="47" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1951,13 +1951,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1968,19 +1968,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="29" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2088,10 +2088,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2115,8 +2115,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2139,11 +2139,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2155,13 +2157,11 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,90 +2187,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="56">
+      <c r="K4" s="75">
         <v>1</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2298,66 +2298,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="71" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="55">
+      <c r="K6" s="74">
         <v>2</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="68"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="72"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2369,16 +2369,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="56">
+      <c r="K8" s="75">
         <v>3</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2406,90 +2406,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="67" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="55">
+      <c r="K10" s="74">
         <v>4</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="56">
+      <c r="K12" s="75">
         <v>5</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2517,55 +2517,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="55">
+      <c r="K14" s="74">
         <v>6</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,29 +2583,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,39 +2636,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="62"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="62"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2710,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="67" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,39 +2789,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="75" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="75" t="s">
+      <c r="H31" s="59" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,34 +2831,32 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2875,32 +2873,34 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2EDE43-EC3A-4D56-997C-F0A9D503CA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598939DC-FAA6-475D-8B37-384CB673D021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -777,15 +777,84 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -804,73 +873,73 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,75 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,36 +1357,36 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="14" width="7.28515625" customWidth="1"/>
+    <col min="10" max="13" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1418,10 +1418,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1489,8 +1489,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1564,8 +1564,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1689,13 +1689,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1706,13 +1706,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1723,19 +1723,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1757,8 +1757,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1778,10 +1778,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1826,8 +1826,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1951,13 +1951,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1968,19 +1968,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="52" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2088,10 +2088,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="48" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2115,8 +2115,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2139,13 +2139,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2157,11 +2155,13 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,90 +2187,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="75">
+      <c r="K4" s="56">
         <v>1</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2298,66 +2298,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="67" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="74">
+      <c r="K6" s="55">
         <v>2</v>
       </c>
-      <c r="L6" s="73" t="s">
+      <c r="L6" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="72"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2369,16 +2369,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="75">
+      <c r="K8" s="56">
         <v>3</v>
       </c>
-      <c r="L8" s="77" t="s">
+      <c r="L8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2406,90 +2406,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="67" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="69" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="74">
+      <c r="K10" s="55">
         <v>4</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="75">
+      <c r="K12" s="56">
         <v>5</v>
       </c>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2517,55 +2517,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="74">
+      <c r="K14" s="55">
         <v>6</v>
       </c>
-      <c r="L14" s="73" t="s">
+      <c r="L14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,29 +2583,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,39 +2636,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="64"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="64"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2710,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="69" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,39 +2789,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="62"/>
+      <c r="G31" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="75" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,32 +2831,34 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2873,34 +2875,32 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598939DC-FAA6-475D-8B37-384CB673D021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A81DD-586A-4487-A9B2-B1FB06BE3D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -777,9 +777,72 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,68 +873,62 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,68 +942,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,36 +1357,36 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="13" width="7.28515625" customWidth="1"/>
+    <col min="10" max="12" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1418,10 +1418,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1489,8 +1489,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1564,8 +1564,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1689,13 +1689,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1706,13 +1706,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1723,19 +1723,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1757,8 +1757,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1778,10 +1778,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="51" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1826,8 +1826,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="54" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="47" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1951,13 +1951,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1968,19 +1968,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="29" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2088,10 +2088,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2115,8 +2115,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2139,11 +2139,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2155,13 +2157,11 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,90 +2187,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="56">
+      <c r="K4" s="75">
         <v>1</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2298,66 +2298,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="71" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="55">
+      <c r="K6" s="74">
         <v>2</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="68"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="72"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2369,16 +2369,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="56">
+      <c r="K8" s="75">
         <v>3</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2406,90 +2406,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="67" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="55">
+      <c r="K10" s="74">
         <v>4</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="56">
+      <c r="K12" s="75">
         <v>5</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2517,55 +2517,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="55">
+      <c r="K14" s="74">
         <v>6</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,29 +2583,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,39 +2636,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="62"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="62"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2710,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="67" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,39 +2789,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="75" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="75" t="s">
+      <c r="H31" s="59" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,34 +2831,32 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2875,32 +2873,34 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A81DD-586A-4487-A9B2-B1FB06BE3D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8ACBEF-29C5-4AE2-BB51-34B1C4F13B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -745,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -777,15 +777,84 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -804,73 +873,73 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,74 +948,13 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1342,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,32 +1369,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="e" vm="1">
+      <c r="A1" s="80" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1418,10 +1426,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1445,8 +1453,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1468,8 +1476,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1489,8 +1497,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1514,8 +1522,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1539,8 +1547,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1564,8 +1572,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1589,8 +1597,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1614,8 +1622,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1639,8 +1647,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1672,13 +1680,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1689,13 +1697,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1706,13 +1714,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1723,19 +1731,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1757,8 +1765,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1778,10 +1786,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1805,8 +1813,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1826,8 +1834,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1847,10 +1855,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1874,8 +1882,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1895,10 +1903,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1922,8 +1930,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1951,13 +1959,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1968,19 +1976,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="52" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2004,8 +2012,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2025,8 +2033,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2046,8 +2054,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2067,8 +2075,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2088,10 +2096,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="48" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2115,8 +2123,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2139,13 +2147,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2157,11 +2163,13 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2173,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036672A4-8952-44C6-9E0D-0D4906E8D835}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,90 +2195,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="75">
+      <c r="K4" s="56">
         <v>1</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2298,66 +2306,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="67" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="74">
+      <c r="K6" s="55">
         <v>2</v>
       </c>
-      <c r="L6" s="73" t="s">
+      <c r="L6" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="72"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2369,16 +2377,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="75">
+      <c r="K8" s="56">
         <v>3</v>
       </c>
-      <c r="L8" s="77" t="s">
+      <c r="L8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2406,90 +2414,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="67" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="69" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="74">
+      <c r="K10" s="55">
         <v>4</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="75">
+      <c r="K12" s="56">
         <v>5</v>
       </c>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2517,55 +2525,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="74">
+      <c r="K14" s="55">
         <v>6</v>
       </c>
-      <c r="L14" s="73" t="s">
+      <c r="L14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,29 +2591,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,39 +2644,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="64"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="64"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2718,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="69" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,39 +2797,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="62"/>
+      <c r="G31" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="75" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,32 +2839,34 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2873,34 +2883,32 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8ACBEF-29C5-4AE2-BB51-34B1C4F13B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F2E54F-7F28-4256-A4A0-A4C6193FD177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Input + Equipment" sheetId="1" r:id="rId1"/>
@@ -777,176 +777,35 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -955,6 +814,147 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,32 +1369,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="e" vm="1">
+      <c r="A1" s="33" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1426,10 +1426,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1453,8 +1453,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1476,8 +1476,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1497,8 +1497,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1522,8 +1522,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1547,8 +1547,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1572,8 +1572,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1597,8 +1597,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1622,8 +1622,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1647,8 +1647,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1680,13 +1680,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1697,13 +1697,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1714,13 +1714,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1731,19 +1731,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1765,8 +1765,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1786,10 +1786,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="51" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1813,8 +1813,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1834,8 +1834,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1855,10 +1855,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="54" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1882,8 +1882,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1903,10 +1903,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="47" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1930,8 +1930,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1959,13 +1959,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1976,19 +1976,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="29" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2012,8 +2012,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2033,8 +2033,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2054,8 +2054,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2075,8 +2075,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2096,10 +2096,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2123,8 +2123,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2147,11 +2147,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2163,13 +2165,11 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2181,7 +2181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036672A4-8952-44C6-9E0D-0D4906E8D835}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -2195,90 +2195,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="e" vm="1">
+      <c r="A1" s="71" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="56">
+      <c r="K4" s="77">
         <v>1</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2306,66 +2306,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="73" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="55">
+      <c r="K6" s="76">
         <v>2</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="68"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="74"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2377,16 +2377,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="56">
+      <c r="K8" s="77">
         <v>3</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2414,90 +2414,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="67" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="55">
+      <c r="K10" s="76">
         <v>4</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="56">
+      <c r="K12" s="77">
         <v>5</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2525,55 +2525,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="55">
+      <c r="K14" s="76">
         <v>6</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2591,29 +2591,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2644,39 +2644,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="62"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="62"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,55 +2718,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="67" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2797,39 +2797,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="75" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="75" t="s">
+      <c r="H31" s="59" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2839,34 +2839,32 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2883,32 +2881,34 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F2E54F-7F28-4256-A4A0-A4C6193FD177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3409582-7845-45A2-A106-EC9022003557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -777,31 +777,37 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,6 +833,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -845,34 +854,100 @@
     <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -880,81 +955,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,32 +1369,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="e" vm="1">
+      <c r="A1" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1426,10 +1426,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="16">
@@ -1453,8 +1453,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1476,8 +1476,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -1497,8 +1497,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1522,8 +1522,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -1547,8 +1547,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1572,8 +1572,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1597,8 +1597,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1622,8 +1622,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -1647,8 +1647,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1680,13 +1680,13 @@
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1697,13 +1697,13 @@
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1714,13 +1714,13 @@
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1731,19 +1731,19 @@
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -1765,8 +1765,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="13">
         <v>16</v>
       </c>
@@ -1786,10 +1786,10 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="14">
@@ -1813,8 +1813,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="15">
         <v>18</v>
       </c>
@@ -1834,8 +1834,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="14">
         <v>19</v>
       </c>
@@ -1855,10 +1855,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8">
@@ -1882,8 +1882,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -1903,10 +1903,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="20">
@@ -1930,8 +1930,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
@@ -1959,13 +1959,13 @@
       <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1976,19 +1976,19 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="52" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="19">
@@ -2012,8 +2012,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="2">
         <v>27</v>
       </c>
@@ -2033,8 +2033,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="19">
         <v>28</v>
       </c>
@@ -2054,8 +2054,8 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2075,8 +2075,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="19">
         <v>30</v>
       </c>
@@ -2096,10 +2096,10 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="48" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -2123,8 +2123,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="13">
         <v>32</v>
       </c>
@@ -2147,13 +2147,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I2"/>
@@ -2165,11 +2163,13 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2195,90 +2195,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="e" vm="1">
+      <c r="A1" s="67" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="12"/>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="77">
+      <c r="K4" s="56">
         <v>1</v>
       </c>
-      <c r="L4" s="79" t="s">
+      <c r="L4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2306,66 +2306,66 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="69" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="K6" s="76">
+      <c r="K6" s="55">
         <v>2</v>
       </c>
-      <c r="L6" s="75" t="s">
+      <c r="L6" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="74"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="70"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -2377,16 +2377,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="77">
+      <c r="K8" s="56">
         <v>3</v>
       </c>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2414,90 +2414,90 @@
         <v>16</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="67" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="71" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="K10" s="76">
+      <c r="K10" s="55">
         <v>4</v>
       </c>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
-      <c r="K12" s="77">
+      <c r="K12" s="56">
         <v>5</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2525,55 +2525,55 @@
         <v>8</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="K14" s="76">
+      <c r="K14" s="55">
         <v>6</v>
       </c>
-      <c r="L14" s="75" t="s">
+      <c r="L14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="12"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2591,29 +2591,29 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2644,39 +2644,39 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="64"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="64"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,55 +2718,55 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="72"/>
+      <c r="B26" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="71" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2797,39 +2797,39 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="62"/>
+      <c r="G31" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="77" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2839,32 +2839,34 @@
     <row r="35" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="K1:P2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -2881,34 +2883,32 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="L12:P13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input List/Full Band/Input List.xlsx
+++ b/Input List/Full Band/Input List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3409582-7845-45A2-A106-EC9022003557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84EE20E-6481-499A-BA42-F68A0FDAB27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -777,37 +777,31 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,9 +827,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -854,26 +845,98 @@
     <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horiz